--- a/RelatórioFinal.xlsx
+++ b/RelatórioFinal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="182">
   <si>
     <t>Inscrição</t>
   </si>
@@ -388,7 +388,25 @@
     <t>76225</t>
   </si>
   <si>
-    <t>R$:</t>
+    <t>101.051.0295.034</t>
+  </si>
+  <si>
+    <t>101.158.0122.006</t>
+  </si>
+  <si>
+    <t>102.095.0257.001</t>
+  </si>
+  <si>
+    <t>102.095.0257.002</t>
+  </si>
+  <si>
+    <t>107.375.0282.000</t>
+  </si>
+  <si>
+    <t>109.032.0499.000</t>
+  </si>
+  <si>
+    <t>302.571.0293.000</t>
   </si>
   <si>
     <t>--</t>
@@ -406,12 +424,18 @@
     <t>04</t>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>07</t>
   </si>
   <si>
@@ -481,6 +505,9 @@
     <t>9</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>Imóvel</t>
   </si>
   <si>
@@ -508,25 +535,31 @@
     <t>ISS Elet Ret DA</t>
   </si>
   <si>
+    <t>IPTU</t>
+  </si>
+  <si>
+    <t>TSU</t>
+  </si>
+  <si>
+    <t>IPTU - DA</t>
+  </si>
+  <si>
+    <t>Capin. RoçaD.A</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>JUROS:</t>
-  </si>
-  <si>
     <t>Dívida Corrente</t>
   </si>
   <si>
     <t>Dívida Ativa</t>
   </si>
   <si>
-    <t xml:space="preserve">      MULTA:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      GERAL:</t>
+    <t>Ajuizada</t>
   </si>
 </sst>
 </file>
@@ -597,14 +630,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N236"/>
+  <dimension ref="A1:N282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,25 +996,25 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I2" s="2">
         <v>26.52</v>
@@ -1008,25 +1040,25 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I3" s="3">
         <v>13554.88</v>
@@ -1052,25 +1084,25 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="I4" s="2">
         <v>27.77</v>
@@ -1096,25 +1128,25 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="I5" s="3">
         <v>13554.88</v>
@@ -1140,25 +1172,25 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I6" s="2">
         <v>26.52</v>
@@ -1184,25 +1216,25 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I7" s="3">
         <v>1024.1</v>
@@ -1228,25 +1260,25 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I8" s="2">
         <v>26.52</v>
@@ -1272,25 +1304,25 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I9" s="3">
         <v>733.45</v>
@@ -1316,25 +1348,25 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I10" s="2">
         <v>26.52</v>
@@ -1360,25 +1392,25 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I11" s="3">
         <v>700.4400000000001</v>
@@ -1404,25 +1436,25 @@
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I12" s="2">
         <v>26.52</v>
@@ -1448,25 +1480,25 @@
         <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I13" s="3">
         <v>703.92</v>
@@ -1492,25 +1524,25 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I14" s="2">
         <v>26.52</v>
@@ -1536,25 +1568,25 @@
         <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I15" s="3">
         <v>707</v>
@@ -1580,25 +1612,25 @@
         <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I16" s="2">
         <v>26.52</v>
@@ -1624,25 +1656,25 @@
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I17" s="3">
         <v>710</v>
@@ -1668,25 +1700,25 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I18" s="2">
         <v>26.52</v>
@@ -1712,25 +1744,25 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I19" s="3">
         <v>713.1</v>
@@ -1756,25 +1788,25 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I20" s="2">
         <v>26.52</v>
@@ -1800,25 +1832,25 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I21" s="3">
         <v>716.1</v>
@@ -1844,25 +1876,25 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I22" s="2">
         <v>26.52</v>
@@ -1888,25 +1920,25 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I23" s="3">
         <v>719.2</v>
@@ -1932,25 +1964,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I24" s="2">
         <v>26.52</v>
@@ -1976,25 +2008,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I25" s="3">
         <v>722.2</v>
@@ -2020,25 +2052,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I26" s="2">
         <v>26.52</v>
@@ -2064,25 +2096,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I27" s="3">
         <v>725.25</v>
@@ -2108,25 +2140,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I28" s="2">
         <v>26.52</v>
@@ -2152,25 +2184,25 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I29" s="3">
         <v>728.3</v>
@@ -2196,25 +2228,25 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I30" s="2">
         <v>26.52</v>
@@ -2240,25 +2272,25 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I31" s="3">
         <v>730.1</v>
@@ -2284,25 +2316,25 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I32" s="2">
         <v>26.52</v>
@@ -2328,25 +2360,25 @@
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I33" s="3">
         <v>728.45</v>
@@ -2372,25 +2404,25 @@
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I34" s="2">
         <v>26.52</v>
@@ -2416,25 +2448,25 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I35" s="3">
         <v>726.6</v>
@@ -2460,25 +2492,25 @@
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I36" s="2">
         <v>26.52</v>
@@ -2504,25 +2536,25 @@
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I37" s="3">
         <v>724.8</v>
@@ -2548,25 +2580,25 @@
         <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I38" s="2">
         <v>26.52</v>
@@ -2592,25 +2624,25 @@
         <v>31</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I39" s="3">
         <v>722.95</v>
@@ -2636,25 +2668,25 @@
         <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I40" s="2">
         <v>26.52</v>
@@ -2680,25 +2712,25 @@
         <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I41" s="3">
         <v>721.1</v>
@@ -2724,25 +2756,25 @@
         <v>33</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I42" s="2">
         <v>26.52</v>
@@ -2768,25 +2800,25 @@
         <v>33</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I43" s="3">
         <v>719.25</v>
@@ -2812,25 +2844,25 @@
         <v>34</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I44" s="2">
         <v>26.52</v>
@@ -2856,25 +2888,25 @@
         <v>34</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I45" s="3">
         <v>715.55</v>
@@ -2900,25 +2932,25 @@
         <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I46" s="2">
         <v>26.52</v>
@@ -2944,25 +2976,25 @@
         <v>35</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I47" s="3">
         <v>713.7</v>
@@ -2988,25 +3020,25 @@
         <v>36</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I48" s="2">
         <v>26.52</v>
@@ -3032,25 +3064,25 @@
         <v>36</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I49" s="3">
         <v>711.85</v>
@@ -3076,25 +3108,25 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I50" s="2">
         <v>26.52</v>
@@ -3120,25 +3152,25 @@
         <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I51" s="3">
         <v>710</v>
@@ -3164,25 +3196,25 @@
         <v>38</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I52" s="2">
         <v>26.52</v>
@@ -3208,25 +3240,25 @@
         <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I53" s="3">
         <v>818.3</v>
@@ -3252,25 +3284,25 @@
         <v>39</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I54" s="2">
         <v>26.52</v>
@@ -3296,25 +3328,25 @@
         <v>39</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I55" s="3">
         <v>988.75</v>
@@ -3340,25 +3372,25 @@
         <v>40</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I56" s="2">
         <v>26.52</v>
@@ -3384,25 +3416,25 @@
         <v>40</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I57" s="3">
         <v>700.4400000000001</v>
@@ -3428,25 +3460,25 @@
         <v>41</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I58" s="2">
         <v>26.52</v>
@@ -3472,25 +3504,25 @@
         <v>41</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I59" s="3">
         <v>700.4400000000001</v>
@@ -3516,25 +3548,25 @@
         <v>42</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I60" s="2">
         <v>26.52</v>
@@ -3560,25 +3592,25 @@
         <v>42</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I61" s="3">
         <v>700.4400000000001</v>
@@ -3604,25 +3636,25 @@
         <v>43</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I62" s="2">
         <v>26.52</v>
@@ -3648,25 +3680,25 @@
         <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I63" s="3">
         <v>700.4400000000001</v>
@@ -3692,25 +3724,25 @@
         <v>44</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I64" s="2">
         <v>26.52</v>
@@ -3736,25 +3768,25 @@
         <v>44</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I65" s="3">
         <v>700.4400000000001</v>
@@ -3780,25 +3812,25 @@
         <v>45</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I66" s="2">
         <v>26.52</v>
@@ -3824,25 +3856,25 @@
         <v>45</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I67" s="3">
         <v>700.4400000000001</v>
@@ -3868,25 +3900,25 @@
         <v>46</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I68" s="2">
         <v>26.52</v>
@@ -3912,25 +3944,25 @@
         <v>46</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I69" s="3">
         <v>700.4400000000001</v>
@@ -3956,25 +3988,25 @@
         <v>47</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I70" s="2">
         <v>26.52</v>
@@ -4000,25 +4032,25 @@
         <v>47</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I71" s="3">
         <v>700.4400000000001</v>
@@ -4044,25 +4076,25 @@
         <v>48</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I72" s="2">
         <v>26.52</v>
@@ -4088,25 +4120,25 @@
         <v>48</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I73" s="3">
         <v>700.4400000000001</v>
@@ -4132,25 +4164,25 @@
         <v>49</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I74" s="2">
         <v>26.52</v>
@@ -4176,25 +4208,25 @@
         <v>49</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I75" s="3">
         <v>700.4400000000001</v>
@@ -4220,25 +4252,25 @@
         <v>50</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I76" s="2">
         <v>26.52</v>
@@ -4264,25 +4296,25 @@
         <v>50</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I77" s="3">
         <v>700.4400000000001</v>
@@ -4308,25 +4340,25 @@
         <v>51</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I78" s="2">
         <v>26.52</v>
@@ -4352,25 +4384,25 @@
         <v>51</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I79" s="3">
         <v>818.65</v>
@@ -4396,25 +4428,25 @@
         <v>52</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I80" s="2">
         <v>26.52</v>
@@ -4440,25 +4472,25 @@
         <v>52</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I81" s="3">
         <v>702.4</v>
@@ -4484,25 +4516,25 @@
         <v>53</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I82" s="2">
         <v>26.52</v>
@@ -4528,25 +4560,25 @@
         <v>53</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I83" s="3">
         <v>985.08</v>
@@ -4572,25 +4604,25 @@
         <v>54</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I84" s="2">
         <v>26.52</v>
@@ -4616,25 +4648,25 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I85" s="3">
         <v>700.4400000000001</v>
@@ -4660,25 +4692,25 @@
         <v>55</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I86" s="2">
         <v>26.52</v>
@@ -4704,25 +4736,25 @@
         <v>55</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I87" s="3">
         <v>700.4400000000001</v>
@@ -4748,25 +4780,25 @@
         <v>56</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I88" s="2">
         <v>26.52</v>
@@ -4792,25 +4824,25 @@
         <v>56</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I89" s="3">
         <v>700.4400000000001</v>
@@ -4836,25 +4868,25 @@
         <v>57</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I90" s="2">
         <v>26.52</v>
@@ -4880,25 +4912,25 @@
         <v>57</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I91" s="3">
         <v>700.4400000000001</v>
@@ -4924,25 +4956,25 @@
         <v>58</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I92" s="2">
         <v>26.52</v>
@@ -4968,25 +5000,25 @@
         <v>58</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I93" s="3">
         <v>700.4400000000001</v>
@@ -5012,25 +5044,25 @@
         <v>59</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I94" s="2">
         <v>26.52</v>
@@ -5056,25 +5088,25 @@
         <v>59</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I95" s="3">
         <v>700.4400000000001</v>
@@ -5100,25 +5132,25 @@
         <v>60</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I96" s="2">
         <v>26.52</v>
@@ -5144,25 +5176,25 @@
         <v>60</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I97" s="3">
         <v>700.4400000000001</v>
@@ -5188,25 +5220,25 @@
         <v>61</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I98" s="2">
         <v>26.52</v>
@@ -5232,25 +5264,25 @@
         <v>61</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I99" s="3">
         <v>700.4400000000001</v>
@@ -5276,25 +5308,25 @@
         <v>62</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I100" s="2">
         <v>26.52</v>
@@ -5320,25 +5352,25 @@
         <v>62</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I101" s="3">
         <v>700.4400000000001</v>
@@ -5364,25 +5396,25 @@
         <v>63</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I102" s="2">
         <v>26.52</v>
@@ -5408,25 +5440,25 @@
         <v>63</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I103" s="3">
         <v>700.4400000000001</v>
@@ -5452,25 +5484,25 @@
         <v>64</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I104" s="2">
         <v>26.52</v>
@@ -5496,25 +5528,25 @@
         <v>64</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I105" s="3">
         <v>700.4400000000001</v>
@@ -5540,25 +5572,25 @@
         <v>65</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I106" s="2">
         <v>26.52</v>
@@ -5584,25 +5616,25 @@
         <v>65</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I107" s="3">
         <v>983.04</v>
@@ -5628,25 +5660,25 @@
         <v>66</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I108" s="2">
         <v>26.52</v>
@@ -5672,25 +5704,25 @@
         <v>66</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I109" s="3">
         <v>1015.14</v>
@@ -5716,25 +5748,25 @@
         <v>67</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I110" s="2">
         <v>26.52</v>
@@ -5760,25 +5792,25 @@
         <v>67</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I111" s="3">
         <v>700.4400000000001</v>
@@ -5804,25 +5836,25 @@
         <v>68</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I112" s="2">
         <v>26.52</v>
@@ -5848,25 +5880,25 @@
         <v>68</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I113" s="3">
         <v>700.4400000000001</v>
@@ -5892,25 +5924,25 @@
         <v>69</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I114" s="2">
         <v>26.52</v>
@@ -5936,25 +5968,25 @@
         <v>69</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I115" s="3">
         <v>700.4400000000001</v>
@@ -5980,25 +6012,25 @@
         <v>70</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I116" s="2">
         <v>26.52</v>
@@ -6024,25 +6056,25 @@
         <v>70</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I117" s="3">
         <v>700.4400000000001</v>
@@ -6068,25 +6100,25 @@
         <v>71</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I118" s="2">
         <v>26.52</v>
@@ -6112,25 +6144,25 @@
         <v>71</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I119" s="3">
         <v>700.4400000000001</v>
@@ -6156,25 +6188,25 @@
         <v>72</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I120" s="2">
         <v>26.52</v>
@@ -6200,25 +6232,25 @@
         <v>72</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I121" s="3">
         <v>700.4400000000001</v>
@@ -6244,25 +6276,25 @@
         <v>73</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I122" s="2">
         <v>26.52</v>
@@ -6288,25 +6320,25 @@
         <v>73</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I123" s="3">
         <v>700.4400000000001</v>
@@ -6332,25 +6364,25 @@
         <v>74</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I124" s="2">
         <v>26.52</v>
@@ -6376,25 +6408,25 @@
         <v>74</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I125" s="3">
         <v>700.4400000000001</v>
@@ -6420,25 +6452,25 @@
         <v>75</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I126" s="2">
         <v>26.52</v>
@@ -6464,25 +6496,25 @@
         <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I127" s="3">
         <v>700.4400000000001</v>
@@ -6508,25 +6540,25 @@
         <v>76</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I128" s="2">
         <v>26.52</v>
@@ -6552,25 +6584,25 @@
         <v>76</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I129" s="3">
         <v>700.4400000000001</v>
@@ -6596,25 +6628,25 @@
         <v>77</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I130" s="2">
         <v>26.52</v>
@@ -6640,25 +6672,25 @@
         <v>77</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I131" s="3">
         <v>700.4400000000001</v>
@@ -6684,25 +6716,25 @@
         <v>78</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I132" s="2">
         <v>26.52</v>
@@ -6728,25 +6760,25 @@
         <v>78</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I133" s="3">
         <v>700.4400000000001</v>
@@ -6772,25 +6804,25 @@
         <v>79</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I134" s="2">
         <v>26.52</v>
@@ -6816,25 +6848,25 @@
         <v>79</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I135" s="3">
         <v>1021.44</v>
@@ -6860,25 +6892,25 @@
         <v>80</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I136" s="2">
         <v>26.52</v>
@@ -6904,25 +6936,25 @@
         <v>80</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I137" s="3">
         <v>998.48</v>
@@ -6948,25 +6980,25 @@
         <v>81</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I138" s="2">
         <v>26.52</v>
@@ -6992,25 +7024,25 @@
         <v>81</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I139" s="3">
         <v>700.4400000000001</v>
@@ -7036,25 +7068,25 @@
         <v>82</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I140" s="2">
         <v>26.52</v>
@@ -7080,25 +7112,25 @@
         <v>82</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I141" s="3">
         <v>700.4400000000001</v>
@@ -7124,25 +7156,25 @@
         <v>83</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I142" s="2">
         <v>26.52</v>
@@ -7168,25 +7200,25 @@
         <v>83</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I143" s="3">
         <v>700.4400000000001</v>
@@ -7212,25 +7244,25 @@
         <v>84</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I144" s="2">
         <v>26.52</v>
@@ -7256,25 +7288,25 @@
         <v>84</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I145" s="3">
         <v>700.4400000000001</v>
@@ -7300,25 +7332,25 @@
         <v>85</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I146" s="2">
         <v>26.52</v>
@@ -7344,25 +7376,25 @@
         <v>85</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I147" s="3">
         <v>700.4400000000001</v>
@@ -7388,25 +7420,25 @@
         <v>86</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I148" s="2">
         <v>26.52</v>
@@ -7432,25 +7464,25 @@
         <v>86</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I149" s="3">
         <v>700.4400000000001</v>
@@ -7476,25 +7508,25 @@
         <v>87</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I150" s="2">
         <v>26.52</v>
@@ -7520,25 +7552,25 @@
         <v>87</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I151" s="3">
         <v>700.4400000000001</v>
@@ -7564,25 +7596,25 @@
         <v>88</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I152" s="2">
         <v>26.52</v>
@@ -7608,25 +7640,25 @@
         <v>88</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I153" s="3">
         <v>700.4400000000001</v>
@@ -7652,25 +7684,25 @@
         <v>89</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I154" s="2">
         <v>26.52</v>
@@ -7696,25 +7728,25 @@
         <v>89</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I155" s="3">
         <v>700.4400000000001</v>
@@ -7740,25 +7772,25 @@
         <v>90</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I156" s="2">
         <v>26.52</v>
@@ -7784,25 +7816,25 @@
         <v>90</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I157" s="3">
         <v>700.4400000000001</v>
@@ -7828,25 +7860,25 @@
         <v>91</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I158" s="2">
         <v>26.52</v>
@@ -7872,25 +7904,25 @@
         <v>91</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I159" s="3">
         <v>700.4400000000001</v>
@@ -7916,25 +7948,25 @@
         <v>92</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I160" s="2">
         <v>26.52</v>
@@ -7960,25 +7992,25 @@
         <v>92</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I161" s="3">
         <v>700.4400000000001</v>
@@ -8004,25 +8036,25 @@
         <v>93</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I162" s="2">
         <v>26.52</v>
@@ -8048,25 +8080,25 @@
         <v>93</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I163" s="3">
         <v>1405.92</v>
@@ -8092,25 +8124,25 @@
         <v>94</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I164" s="2">
         <v>26.52</v>
@@ -8136,25 +8168,25 @@
         <v>94</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I165" s="3">
         <v>700.4400000000001</v>
@@ -8180,25 +8212,25 @@
         <v>95</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I166" s="2">
         <v>26.52</v>
@@ -8224,25 +8256,25 @@
         <v>95</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I167" s="3">
         <v>700.4400000000001</v>
@@ -8268,25 +8300,25 @@
         <v>96</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I168" s="2">
         <v>26.52</v>
@@ -8312,25 +8344,25 @@
         <v>96</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I169" s="3">
         <v>700.4400000000001</v>
@@ -8356,25 +8388,25 @@
         <v>97</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I170" s="2">
         <v>26.52</v>
@@ -8400,25 +8432,25 @@
         <v>97</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I171" s="3">
         <v>700.4400000000001</v>
@@ -8444,25 +8476,25 @@
         <v>98</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I172" s="2">
         <v>26.52</v>
@@ -8488,25 +8520,25 @@
         <v>98</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I173" s="3">
         <v>700.4400000000001</v>
@@ -8532,25 +8564,25 @@
         <v>99</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I174" s="2">
         <v>26.52</v>
@@ -8576,25 +8608,25 @@
         <v>99</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I175" s="3">
         <v>700.4400000000001</v>
@@ -8620,25 +8652,25 @@
         <v>100</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I176" s="2">
         <v>26.52</v>
@@ -8664,25 +8696,25 @@
         <v>100</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I177" s="3">
         <v>700.4400000000001</v>
@@ -8708,25 +8740,25 @@
         <v>101</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I178" s="2">
         <v>26.52</v>
@@ -8752,25 +8784,25 @@
         <v>101</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I179" s="3">
         <v>700.4400000000001</v>
@@ -8796,25 +8828,25 @@
         <v>102</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I180" s="2">
         <v>26.52</v>
@@ -8840,25 +8872,25 @@
         <v>102</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I181" s="3">
         <v>700.4400000000001</v>
@@ -8884,25 +8916,25 @@
         <v>103</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I182" s="2">
         <v>26.52</v>
@@ -8928,25 +8960,25 @@
         <v>103</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I183" s="3">
         <v>700.4400000000001</v>
@@ -8972,25 +9004,25 @@
         <v>104</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I184" s="2">
         <v>26.52</v>
@@ -9016,25 +9048,25 @@
         <v>104</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I185" s="3">
         <v>700.4400000000001</v>
@@ -9060,25 +9092,25 @@
         <v>105</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I186" s="2">
         <v>26.52</v>
@@ -9104,25 +9136,25 @@
         <v>105</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I187" s="3">
         <v>1059.38</v>
@@ -9148,25 +9180,25 @@
         <v>106</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I188" s="2">
         <v>26.52</v>
@@ -9192,25 +9224,25 @@
         <v>106</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I189" s="3">
         <v>1572.48</v>
@@ -9236,25 +9268,25 @@
         <v>107</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I190" s="2">
         <v>26.52</v>
@@ -9280,25 +9312,25 @@
         <v>107</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I191" s="3">
         <v>700.4400000000001</v>
@@ -9324,25 +9356,25 @@
         <v>108</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I192" s="2">
         <v>26.52</v>
@@ -9368,25 +9400,25 @@
         <v>108</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I193" s="3">
         <v>700.4400000000001</v>
@@ -9412,25 +9444,25 @@
         <v>109</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I194" s="2">
         <v>26.52</v>
@@ -9456,25 +9488,25 @@
         <v>109</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I195" s="3">
         <v>700.4400000000001</v>
@@ -9500,25 +9532,25 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I196" s="2">
         <v>26.52</v>
@@ -9544,25 +9576,25 @@
         <v>110</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I197" s="3">
         <v>700.4400000000001</v>
@@ -9588,25 +9620,25 @@
         <v>111</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I198" s="2">
         <v>26.52</v>
@@ -9632,25 +9664,25 @@
         <v>111</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I199" s="3">
         <v>700.4400000000001</v>
@@ -9676,25 +9708,25 @@
         <v>112</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I200" s="2">
         <v>26.52</v>
@@ -9720,25 +9752,25 @@
         <v>112</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I201" s="3">
         <v>700.4400000000001</v>
@@ -9764,25 +9796,25 @@
         <v>113</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I202" s="2">
         <v>26.52</v>
@@ -9808,25 +9840,25 @@
         <v>113</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I203" s="3">
         <v>700.4400000000001</v>
@@ -9852,25 +9884,25 @@
         <v>114</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I204" s="2">
         <v>26.52</v>
@@ -9896,25 +9928,25 @@
         <v>114</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I205" s="3">
         <v>700.4400000000001</v>
@@ -9940,25 +9972,25 @@
         <v>115</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I206" s="2">
         <v>26.52</v>
@@ -9984,25 +10016,25 @@
         <v>115</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I207" s="3">
         <v>700.4400000000001</v>
@@ -10028,25 +10060,25 @@
         <v>116</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I208" s="2">
         <v>26.52</v>
@@ -10072,25 +10104,25 @@
         <v>116</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I209" s="3">
         <v>700.4400000000001</v>
@@ -10116,25 +10148,25 @@
         <v>117</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I210" s="2">
         <v>26.52</v>
@@ -10160,25 +10192,25 @@
         <v>117</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I211" s="3">
         <v>700.4400000000001</v>
@@ -10204,25 +10236,25 @@
         <v>118</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I212" s="2">
         <v>26.52</v>
@@ -10248,25 +10280,25 @@
         <v>118</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I213" s="3">
         <v>1029.49</v>
@@ -10292,25 +10324,25 @@
         <v>119</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I214" s="2">
         <v>26.52</v>
@@ -10336,25 +10368,25 @@
         <v>119</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I215" s="3">
         <v>704.4400000000001</v>
@@ -10380,25 +10412,25 @@
         <v>120</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I216" s="2">
         <v>26.52</v>
@@ -10424,25 +10456,25 @@
         <v>120</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I217" s="3">
         <v>990.01</v>
@@ -10468,25 +10500,25 @@
         <v>121</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I218" s="2">
         <v>26.52</v>
@@ -10512,25 +10544,25 @@
         <v>121</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I219" s="3">
         <v>20735.52</v>
@@ -10556,25 +10588,25 @@
         <v>122</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I220" s="2">
         <v>26.52</v>
@@ -10600,25 +10632,25 @@
         <v>122</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I221" s="3">
         <v>20560</v>
@@ -10644,25 +10676,25 @@
         <v>123</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I222" s="2">
         <v>59.16</v>
@@ -10688,25 +10720,25 @@
         <v>123</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I223" s="3">
         <v>32.51</v>
@@ -10732,25 +10764,25 @@
         <v>123</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I224" s="2">
         <v>34.8</v>
@@ -10776,25 +10808,25 @@
         <v>123</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I225" s="3">
         <v>786.4</v>
@@ -10820,25 +10852,25 @@
         <v>123</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I226" s="2">
         <v>214.85</v>
@@ -10864,25 +10896,25 @@
         <v>123</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I227" s="3">
         <v>33.64</v>
@@ -10908,25 +10940,25 @@
         <v>123</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I228" s="2">
         <v>27.14</v>
@@ -10952,25 +10984,25 @@
         <v>123</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I229" s="3">
         <v>103.93</v>
@@ -10996,25 +11028,25 @@
         <v>123</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I230" s="2">
         <v>51</v>
@@ -11040,25 +11072,25 @@
         <v>123</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I231" s="3">
         <v>27.23</v>
@@ -11084,25 +11116,25 @@
         <v>123</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I232" s="2">
         <v>3</v>
@@ -11128,25 +11160,25 @@
         <v>123</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I233" s="3">
         <v>0.75</v>
@@ -11172,25 +11204,25 @@
         <v>123</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I234" s="2">
         <v>62.4</v>
@@ -11216,25 +11248,25 @@
         <v>123</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="I235" s="3">
         <v>211.12</v>
@@ -11255,27 +11287,2072 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:14" s="4" customFormat="1">
-      <c r="A236" s="4" t="s">
+    <row r="236" spans="1:14" s="2" customFormat="1">
+      <c r="A236" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G236" s="4" t="s">
+      <c r="B236" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F236" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G236" s="2">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I236" s="2">
+        <v>3180.8</v>
+      </c>
+      <c r="J236" s="2">
+        <v>0</v>
+      </c>
+      <c r="K236" s="2">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2">
+        <v>3180.8</v>
+      </c>
+      <c r="M236" s="2">
+        <v>0</v>
+      </c>
+      <c r="N236" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" s="3" customFormat="1">
+      <c r="A237" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F237" s="3">
+        <v>2024</v>
+      </c>
+      <c r="G237" s="3">
+        <v>1</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I237" s="3">
+        <v>580.72</v>
+      </c>
+      <c r="J237" s="3">
+        <v>0</v>
+      </c>
+      <c r="K237" s="3">
+        <v>0</v>
+      </c>
+      <c r="L237" s="3">
+        <v>580.72</v>
+      </c>
+      <c r="M237" s="3">
+        <v>0</v>
+      </c>
+      <c r="N237" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" s="2" customFormat="1">
+      <c r="A238" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F238" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G238" s="2">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I238" s="2">
+        <v>5299.2</v>
+      </c>
+      <c r="J238" s="2">
+        <v>0</v>
+      </c>
+      <c r="K238" s="2">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2">
+        <v>5299.2</v>
+      </c>
+      <c r="M238" s="2">
+        <v>0</v>
+      </c>
+      <c r="N238" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" s="3" customFormat="1">
+      <c r="A239" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F239" s="3">
+        <v>2024</v>
+      </c>
+      <c r="G239" s="3">
+        <v>1</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I239" s="3">
+        <v>644.76</v>
+      </c>
+      <c r="J239" s="3">
+        <v>0</v>
+      </c>
+      <c r="K239" s="3">
+        <v>0</v>
+      </c>
+      <c r="L239" s="3">
+        <v>644.76</v>
+      </c>
+      <c r="M239" s="3">
+        <v>0</v>
+      </c>
+      <c r="N239" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" s="2" customFormat="1">
+      <c r="A240" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F240" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G240" s="2">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I240" s="2">
+        <v>2309.44</v>
+      </c>
+      <c r="J240" s="2">
+        <v>0</v>
+      </c>
+      <c r="K240" s="2">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2">
+        <v>2309.44</v>
+      </c>
+      <c r="M240" s="2">
+        <v>0</v>
+      </c>
+      <c r="N240" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" s="3" customFormat="1">
+      <c r="A241" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F241" s="3">
+        <v>2024</v>
+      </c>
+      <c r="G241" s="3">
+        <v>1</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I241" s="3">
+        <v>350.24</v>
+      </c>
+      <c r="J241" s="3">
+        <v>0</v>
+      </c>
+      <c r="K241" s="3">
+        <v>0</v>
+      </c>
+      <c r="L241" s="3">
+        <v>350.24</v>
+      </c>
+      <c r="M241" s="3">
+        <v>0</v>
+      </c>
+      <c r="N241" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" s="2" customFormat="1">
+      <c r="A242" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F242" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G242" s="2">
+        <v>1</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I242" s="2">
+        <v>1850.16</v>
+      </c>
+      <c r="J242" s="2">
+        <v>0</v>
+      </c>
+      <c r="K242" s="2">
+        <v>0</v>
+      </c>
+      <c r="L242" s="2">
+        <v>1850.16</v>
+      </c>
+      <c r="M242" s="2">
+        <v>0</v>
+      </c>
+      <c r="N242" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" s="3" customFormat="1">
+      <c r="A243" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F243" s="3">
+        <v>2024</v>
+      </c>
+      <c r="G243" s="3">
+        <v>1</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I243" s="3">
+        <v>280.59</v>
+      </c>
+      <c r="J243" s="3">
+        <v>0</v>
+      </c>
+      <c r="K243" s="3">
+        <v>0</v>
+      </c>
+      <c r="L243" s="3">
+        <v>280.59</v>
+      </c>
+      <c r="M243" s="3">
+        <v>0</v>
+      </c>
+      <c r="N243" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" s="2" customFormat="1">
+      <c r="A244" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H236" s="4">
-        <v>1377.27</v>
-      </c>
-      <c r="I236" s="4" t="s">
+      <c r="F244" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G244" s="2">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I244" s="2">
+        <v>26.52</v>
+      </c>
+      <c r="J244" s="2">
+        <v>0</v>
+      </c>
+      <c r="K244" s="2">
+        <v>0</v>
+      </c>
+      <c r="L244" s="2">
+        <v>26.52</v>
+      </c>
+      <c r="M244" s="2">
+        <v>0</v>
+      </c>
+      <c r="N244" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" s="3" customFormat="1">
+      <c r="A245" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F245" s="3">
+        <v>2024</v>
+      </c>
+      <c r="G245" s="3">
+        <v>1</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I245" s="3">
+        <v>323.42</v>
+      </c>
+      <c r="J245" s="3">
+        <v>0</v>
+      </c>
+      <c r="K245" s="3">
+        <v>0</v>
+      </c>
+      <c r="L245" s="3">
+        <v>323.42</v>
+      </c>
+      <c r="M245" s="3">
+        <v>0</v>
+      </c>
+      <c r="N245" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" s="2" customFormat="1">
+      <c r="A246" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F246" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G246" s="2">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I246" s="2">
+        <v>68.73</v>
+      </c>
+      <c r="J246" s="2">
+        <v>56.36</v>
+      </c>
+      <c r="K246" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="L246" s="2">
+        <v>138.84</v>
+      </c>
+      <c r="M246" s="2">
+        <v>1</v>
+      </c>
+      <c r="N246" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" s="3" customFormat="1">
+      <c r="A247" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E247" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J236" s="4">
-        <v>2720.75</v>
-      </c>
-      <c r="K236" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L236" s="4">
-        <v>156620.01</v>
+      <c r="F247" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G247" s="3">
+        <v>1</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I247" s="3">
+        <v>291.36</v>
+      </c>
+      <c r="J247" s="3">
+        <v>238.91</v>
+      </c>
+      <c r="K247" s="3">
+        <v>58.27</v>
+      </c>
+      <c r="L247" s="3">
+        <v>588.54</v>
+      </c>
+      <c r="M247" s="3">
+        <v>1</v>
+      </c>
+      <c r="N247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" s="2" customFormat="1">
+      <c r="A248" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F248" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G248" s="2">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I248" s="2">
+        <v>53.22</v>
+      </c>
+      <c r="J248" s="2">
+        <v>37.26</v>
+      </c>
+      <c r="K248" s="2">
+        <v>10.64</v>
+      </c>
+      <c r="L248" s="2">
+        <v>101.12</v>
+      </c>
+      <c r="M248" s="2">
+        <v>1</v>
+      </c>
+      <c r="N248" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" s="3" customFormat="1">
+      <c r="A249" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F249" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G249" s="3">
+        <v>1</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I249" s="3">
+        <v>291.36</v>
+      </c>
+      <c r="J249" s="3">
+        <v>203.95</v>
+      </c>
+      <c r="K249" s="3">
+        <v>58.27</v>
+      </c>
+      <c r="L249" s="3">
+        <v>553.58</v>
+      </c>
+      <c r="M249" s="3">
+        <v>1</v>
+      </c>
+      <c r="N249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" s="2" customFormat="1">
+      <c r="A250" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F250" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G250" s="2">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I250" s="2">
+        <v>37.72</v>
+      </c>
+      <c r="J250" s="2">
+        <v>21.88</v>
+      </c>
+      <c r="K250" s="2">
+        <v>7.54</v>
+      </c>
+      <c r="L250" s="2">
+        <v>67.14</v>
+      </c>
+      <c r="M250" s="2">
+        <v>1</v>
+      </c>
+      <c r="N250" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" s="3" customFormat="1">
+      <c r="A251" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F251" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G251" s="3">
+        <v>1</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I251" s="3">
+        <v>291.36</v>
+      </c>
+      <c r="J251" s="3">
+        <v>168.99</v>
+      </c>
+      <c r="K251" s="3">
+        <v>58.27</v>
+      </c>
+      <c r="L251" s="3">
+        <v>518.62</v>
+      </c>
+      <c r="M251" s="3">
+        <v>1</v>
+      </c>
+      <c r="N251" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" s="2" customFormat="1">
+      <c r="A252" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F252" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G252" s="2">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I252" s="2">
+        <v>34</v>
+      </c>
+      <c r="J252" s="2">
+        <v>15.64</v>
+      </c>
+      <c r="K252" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="L252" s="2">
+        <v>56.44</v>
+      </c>
+      <c r="M252" s="2">
+        <v>1</v>
+      </c>
+      <c r="N252" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" s="3" customFormat="1">
+      <c r="A253" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F253" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G253" s="3">
+        <v>1</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I253" s="3">
+        <v>291.36</v>
+      </c>
+      <c r="J253" s="3">
+        <v>134.03</v>
+      </c>
+      <c r="K253" s="3">
+        <v>58.27</v>
+      </c>
+      <c r="L253" s="3">
+        <v>483.66</v>
+      </c>
+      <c r="M253" s="3">
+        <v>1</v>
+      </c>
+      <c r="N253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" s="2" customFormat="1">
+      <c r="A254" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F254" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G254" s="2">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I254" s="2">
+        <v>31.01</v>
+      </c>
+      <c r="J254" s="2">
+        <v>10.23</v>
+      </c>
+      <c r="K254" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="L254" s="2">
+        <v>47.44</v>
+      </c>
+      <c r="M254" s="2">
+        <v>1</v>
+      </c>
+      <c r="N254" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" s="3" customFormat="1">
+      <c r="A255" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F255" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G255" s="3">
+        <v>1</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I255" s="3">
+        <v>291.37</v>
+      </c>
+      <c r="J255" s="3">
+        <v>96.15000000000001</v>
+      </c>
+      <c r="K255" s="3">
+        <v>58.27</v>
+      </c>
+      <c r="L255" s="3">
+        <v>445.79</v>
+      </c>
+      <c r="M255" s="3">
+        <v>1</v>
+      </c>
+      <c r="N255" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" s="2" customFormat="1">
+      <c r="A256" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F256" s="2">
+        <v>2022</v>
+      </c>
+      <c r="G256" s="2">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I256" s="2">
+        <v>25.42</v>
+      </c>
+      <c r="J256" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="K256" s="2">
+        <v>5.08</v>
+      </c>
+      <c r="L256" s="2">
+        <v>36.09</v>
+      </c>
+      <c r="M256" s="2">
+        <v>1</v>
+      </c>
+      <c r="N256" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" s="3" customFormat="1">
+      <c r="A257" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F257" s="3">
+        <v>2022</v>
+      </c>
+      <c r="G257" s="3">
+        <v>1</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I257" s="3">
+        <v>323.41</v>
+      </c>
+      <c r="J257" s="3">
+        <v>71.15000000000001</v>
+      </c>
+      <c r="K257" s="3">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="L257" s="3">
+        <v>459.24</v>
+      </c>
+      <c r="M257" s="3">
+        <v>1</v>
+      </c>
+      <c r="N257" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" s="2" customFormat="1">
+      <c r="A258" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F258" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G258" s="2">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I258" s="2">
+        <v>27.77</v>
+      </c>
+      <c r="J258" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="K258" s="2">
+        <v>5.55</v>
+      </c>
+      <c r="L258" s="2">
+        <v>36.1</v>
+      </c>
+      <c r="M258" s="2">
+        <v>1</v>
+      </c>
+      <c r="N258" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" s="3" customFormat="1">
+      <c r="A259" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F259" s="3">
+        <v>2023</v>
+      </c>
+      <c r="G259" s="3">
+        <v>1</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I259" s="3">
+        <v>323.42</v>
+      </c>
+      <c r="J259" s="3">
+        <v>32.34</v>
+      </c>
+      <c r="K259" s="3">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="L259" s="3">
+        <v>420.44</v>
+      </c>
+      <c r="M259" s="3">
+        <v>1</v>
+      </c>
+      <c r="N259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" s="2" customFormat="1">
+      <c r="A260" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F260" s="2">
+        <v>2006</v>
+      </c>
+      <c r="G260" s="2">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I260" s="2">
+        <v>323.49</v>
+      </c>
+      <c r="J260" s="2">
+        <v>701.98</v>
+      </c>
+      <c r="K260" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="L260" s="2">
+        <v>1028.7</v>
+      </c>
+      <c r="M260" s="2">
+        <v>1</v>
+      </c>
+      <c r="N260" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" s="3" customFormat="1">
+      <c r="A261" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F261" s="3">
+        <v>2007</v>
+      </c>
+      <c r="G261" s="3">
+        <v>1</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I261" s="3">
+        <v>57.47</v>
+      </c>
+      <c r="J261" s="3">
+        <v>117.25</v>
+      </c>
+      <c r="K261" s="3">
+        <v>11.49</v>
+      </c>
+      <c r="L261" s="3">
+        <v>186.21</v>
+      </c>
+      <c r="M261" s="3">
+        <v>1</v>
+      </c>
+      <c r="N261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" s="2" customFormat="1">
+      <c r="A262" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F262" s="2">
+        <v>2007</v>
+      </c>
+      <c r="G262" s="2">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I262" s="2">
+        <v>147.56</v>
+      </c>
+      <c r="J262" s="2">
+        <v>301.02</v>
+      </c>
+      <c r="K262" s="2">
+        <v>29.51</v>
+      </c>
+      <c r="L262" s="2">
+        <v>478.09</v>
+      </c>
+      <c r="M262" s="2">
+        <v>1</v>
+      </c>
+      <c r="N262" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" s="3" customFormat="1">
+      <c r="A263" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F263" s="3">
+        <v>2008</v>
+      </c>
+      <c r="G263" s="3">
+        <v>1</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I263" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="J263" s="3">
+        <v>93.86</v>
+      </c>
+      <c r="K263" s="3">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="L263" s="3">
+        <v>152.53</v>
+      </c>
+      <c r="M263" s="3">
+        <v>1</v>
+      </c>
+      <c r="N263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" s="2" customFormat="1">
+      <c r="A264" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F264" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G264" s="2">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I264" s="2">
+        <v>114.79</v>
+      </c>
+      <c r="J264" s="2">
+        <v>220.4</v>
+      </c>
+      <c r="K264" s="2">
+        <v>22.96</v>
+      </c>
+      <c r="L264" s="2">
+        <v>358.15</v>
+      </c>
+      <c r="M264" s="2">
+        <v>1</v>
+      </c>
+      <c r="N264" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" s="3" customFormat="1">
+      <c r="A265" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F265" s="3">
+        <v>2009</v>
+      </c>
+      <c r="G265" s="3">
+        <v>1</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I265" s="3">
+        <v>46.08</v>
+      </c>
+      <c r="J265" s="3">
+        <v>82.94</v>
+      </c>
+      <c r="K265" s="3">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="L265" s="3">
+        <v>138.24</v>
+      </c>
+      <c r="M265" s="3">
+        <v>1</v>
+      </c>
+      <c r="N265" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" s="2" customFormat="1">
+      <c r="A266" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F266" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G266" s="2">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I266" s="2">
+        <v>126.27</v>
+      </c>
+      <c r="J266" s="2">
+        <v>227.3</v>
+      </c>
+      <c r="K266" s="2">
+        <v>25.26</v>
+      </c>
+      <c r="L266" s="2">
+        <v>378.83</v>
+      </c>
+      <c r="M266" s="2">
+        <v>1</v>
+      </c>
+      <c r="N266" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" s="3" customFormat="1">
+      <c r="A267" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F267" s="3">
+        <v>2011</v>
+      </c>
+      <c r="G267" s="3">
+        <v>1</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I267" s="3">
+        <v>45.89</v>
+      </c>
+      <c r="J267" s="3">
+        <v>70.66</v>
+      </c>
+      <c r="K267" s="3">
+        <v>9.18</v>
+      </c>
+      <c r="L267" s="3">
+        <v>125.73</v>
+      </c>
+      <c r="M267" s="3">
+        <v>1</v>
+      </c>
+      <c r="N267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" s="2" customFormat="1">
+      <c r="A268" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F268" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G268" s="2">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I268" s="2">
+        <v>258.48</v>
+      </c>
+      <c r="J268" s="2">
+        <v>394.2</v>
+      </c>
+      <c r="K268" s="2">
+        <v>51.68</v>
+      </c>
+      <c r="L268" s="2">
+        <v>704.36</v>
+      </c>
+      <c r="M268" s="2">
+        <v>4</v>
+      </c>
+      <c r="N268" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" s="3" customFormat="1">
+      <c r="A269" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F269" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G269" s="3">
+        <v>1</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I269" s="3">
+        <v>40.72</v>
+      </c>
+      <c r="J269" s="3">
+        <v>52.93</v>
+      </c>
+      <c r="K269" s="3">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="L269" s="3">
+        <v>101.79</v>
+      </c>
+      <c r="M269" s="3">
+        <v>1</v>
+      </c>
+      <c r="N269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" s="2" customFormat="1">
+      <c r="A270" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F270" s="2">
+        <v>2013</v>
+      </c>
+      <c r="G270" s="2">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I270" s="2">
+        <v>258.49</v>
+      </c>
+      <c r="J270" s="2">
+        <v>336.04</v>
+      </c>
+      <c r="K270" s="2">
+        <v>51.7</v>
+      </c>
+      <c r="L270" s="2">
+        <v>646.23</v>
+      </c>
+      <c r="M270" s="2">
+        <v>1</v>
+      </c>
+      <c r="N270" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" s="3" customFormat="1">
+      <c r="A271" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F271" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G271" s="3">
+        <v>1</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I271" s="3">
+        <v>40.82</v>
+      </c>
+      <c r="J271" s="3">
+        <v>48.17</v>
+      </c>
+      <c r="K271" s="3">
+        <v>8.16</v>
+      </c>
+      <c r="L271" s="3">
+        <v>97.15000000000001</v>
+      </c>
+      <c r="M271" s="3">
+        <v>1</v>
+      </c>
+      <c r="N271" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" s="2" customFormat="1">
+      <c r="A272" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F272" s="2">
+        <v>2014</v>
+      </c>
+      <c r="G272" s="2">
+        <v>1</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I272" s="2">
+        <v>258.49</v>
+      </c>
+      <c r="J272" s="2">
+        <v>305.02</v>
+      </c>
+      <c r="K272" s="2">
+        <v>51.7</v>
+      </c>
+      <c r="L272" s="2">
+        <v>615.21</v>
+      </c>
+      <c r="M272" s="2">
+        <v>1</v>
+      </c>
+      <c r="N272" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" s="3" customFormat="1">
+      <c r="A273" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F273" s="3">
+        <v>2015</v>
+      </c>
+      <c r="G273" s="3">
+        <v>1</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I273" s="3">
+        <v>41.15</v>
+      </c>
+      <c r="J273" s="3">
+        <v>43.62</v>
+      </c>
+      <c r="K273" s="3">
+        <v>8.23</v>
+      </c>
+      <c r="L273" s="3">
+        <v>93</v>
+      </c>
+      <c r="M273" s="3">
+        <v>1</v>
+      </c>
+      <c r="N273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" s="2" customFormat="1">
+      <c r="A274" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F274" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G274" s="2">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I274" s="2">
+        <v>291.37</v>
+      </c>
+      <c r="J274" s="2">
+        <v>308.85</v>
+      </c>
+      <c r="K274" s="2">
+        <v>58.27</v>
+      </c>
+      <c r="L274" s="2">
+        <v>658.49</v>
+      </c>
+      <c r="M274" s="2">
+        <v>1</v>
+      </c>
+      <c r="N274" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" s="3" customFormat="1">
+      <c r="A275" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F275" s="3">
+        <v>2016</v>
+      </c>
+      <c r="G275" s="3">
+        <v>1</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I275" s="3">
+        <v>91.20999999999999</v>
+      </c>
+      <c r="J275" s="3">
+        <v>85.73999999999999</v>
+      </c>
+      <c r="K275" s="3">
+        <v>18.24</v>
+      </c>
+      <c r="L275" s="3">
+        <v>195.19</v>
+      </c>
+      <c r="M275" s="3">
+        <v>1</v>
+      </c>
+      <c r="N275" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" s="2" customFormat="1">
+      <c r="A276" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F276" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G276" s="2">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I276" s="2">
+        <v>291.35</v>
+      </c>
+      <c r="J276" s="2">
+        <v>273.87</v>
+      </c>
+      <c r="K276" s="2">
+        <v>58.27</v>
+      </c>
+      <c r="L276" s="2">
+        <v>623.49</v>
+      </c>
+      <c r="M276" s="2">
+        <v>1</v>
+      </c>
+      <c r="N276" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" s="3" customFormat="1">
+      <c r="A277" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F277" s="3">
+        <v>2024</v>
+      </c>
+      <c r="G277" s="3">
+        <v>1</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I277" s="3">
+        <v>156.92</v>
+      </c>
+      <c r="J277" s="3">
+        <v>0</v>
+      </c>
+      <c r="K277" s="3">
+        <v>0</v>
+      </c>
+      <c r="L277" s="3">
+        <v>156.92</v>
+      </c>
+      <c r="M277" s="3">
+        <v>0</v>
+      </c>
+      <c r="N277" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" s="2" customFormat="1">
+      <c r="A278" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F278" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G278" s="2">
+        <v>1</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I278" s="2">
+        <v>38.88</v>
+      </c>
+      <c r="J278" s="2">
+        <v>0</v>
+      </c>
+      <c r="K278" s="2">
+        <v>0</v>
+      </c>
+      <c r="L278" s="2">
+        <v>38.88</v>
+      </c>
+      <c r="M278" s="2">
+        <v>0</v>
+      </c>
+      <c r="N278" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" s="3" customFormat="1">
+      <c r="A279" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F279" s="3">
+        <v>2024</v>
+      </c>
+      <c r="G279" s="3">
+        <v>1</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I279" s="3">
+        <v>26.52</v>
+      </c>
+      <c r="J279" s="3">
+        <v>0</v>
+      </c>
+      <c r="K279" s="3">
+        <v>0</v>
+      </c>
+      <c r="L279" s="3">
+        <v>26.52</v>
+      </c>
+      <c r="M279" s="3">
+        <v>0</v>
+      </c>
+      <c r="N279" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" s="2" customFormat="1">
+      <c r="A280" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F280" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G280" s="2">
+        <v>1</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I280" s="2">
+        <v>310.26</v>
+      </c>
+      <c r="J280" s="2">
+        <v>0</v>
+      </c>
+      <c r="K280" s="2">
+        <v>0</v>
+      </c>
+      <c r="L280" s="2">
+        <v>310.26</v>
+      </c>
+      <c r="M280" s="2">
+        <v>0</v>
+      </c>
+      <c r="N280" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" s="3" customFormat="1">
+      <c r="A281" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F281" s="3">
+        <v>2022</v>
+      </c>
+      <c r="G281" s="3">
+        <v>8</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I281" s="3">
+        <v>214.34</v>
+      </c>
+      <c r="J281" s="3">
+        <v>30.01</v>
+      </c>
+      <c r="K281" s="3">
+        <v>42.87</v>
+      </c>
+      <c r="L281" s="3">
+        <v>287.22</v>
+      </c>
+      <c r="M281" s="3">
+        <v>1</v>
+      </c>
+      <c r="N281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" s="2" customFormat="1">
+      <c r="A282" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F282" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G282" s="2">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I282" s="2">
+        <v>215.05</v>
+      </c>
+      <c r="J282" s="2">
+        <v>19.35</v>
+      </c>
+      <c r="K282" s="2">
+        <v>43.01</v>
+      </c>
+      <c r="L282" s="2">
+        <v>277.41</v>
+      </c>
+      <c r="M282" s="2">
+        <v>1</v>
+      </c>
+      <c r="N282" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/RelatórioFinal.xlsx
+++ b/RelatórioFinal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="236">
   <si>
     <t>Inscrição</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Contribuinte</t>
   </si>
   <si>
-    <t>Área do Lote</t>
-  </si>
-  <si>
-    <t>Área da Unidade</t>
+    <t>Área Lt</t>
+  </si>
+  <si>
+    <t>Área Un</t>
   </si>
   <si>
     <t>TESTADA_M</t>
@@ -73,7 +73,7 @@
     <t>Oupação</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Status Imóvel</t>
   </si>
   <si>
     <t>406.759.0708.000</t>
@@ -406,7 +406,7 @@
     <t>76225</t>
   </si>
   <si>
-    <t>--</t>
+    <t>R$:</t>
   </si>
   <si>
     <t>01</t>
@@ -529,10 +529,19 @@
     <t>2023</t>
   </si>
   <si>
+    <t>JUROS:</t>
+  </si>
+  <si>
     <t>Dívida Corrente</t>
   </si>
   <si>
     <t>Dívida Ativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      MULTA:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      GERAL:</t>
   </si>
   <si>
     <t>SPE RESIDENCIAL BELEM LTDA</t>
@@ -1084,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T235"/>
+  <dimension ref="A1:T236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1098,6 +1107,8 @@
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1166,12 +1177,6 @@
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D2" s="2" t="s">
         <v>160</v>
       </c>
@@ -1185,7 +1190,7 @@
         <v>131</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I2" s="2">
         <v>26.52</v>
@@ -1210,12 +1215,6 @@
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D3" s="3" t="s">
         <v>160</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>131</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I3" s="3">
         <v>13554.88</v>
@@ -1254,12 +1253,6 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>160</v>
       </c>
@@ -1273,7 +1266,7 @@
         <v>131</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I4" s="2">
         <v>27.77</v>
@@ -1298,12 +1291,6 @@
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D5" s="3" t="s">
         <v>160</v>
       </c>
@@ -1317,7 +1304,7 @@
         <v>131</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I5" s="3">
         <v>13554.88</v>
@@ -1361,7 +1348,7 @@
         <v>131</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I6" s="2">
         <v>26.52</v>
@@ -1382,22 +1369,22 @@
         <v>1</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="3" customFormat="1">
@@ -1423,7 +1410,7 @@
         <v>131</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I7" s="3">
         <v>1024.1</v>
@@ -1444,22 +1431,22 @@
         <v>7</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="3">
         <v>0</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1">
@@ -1485,7 +1472,7 @@
         <v>131</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I8" s="2">
         <v>26.52</v>
@@ -1506,22 +1493,22 @@
         <v>1</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="3" customFormat="1">
@@ -1547,7 +1534,7 @@
         <v>131</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I9" s="3">
         <v>733.45</v>
@@ -1568,22 +1555,22 @@
         <v>5</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1">
@@ -1609,7 +1596,7 @@
         <v>131</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I10" s="2">
         <v>26.52</v>
@@ -1630,10 +1617,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -1642,10 +1629,10 @@
         <v>142</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="3" customFormat="1">
@@ -1671,7 +1658,7 @@
         <v>131</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I11" s="3">
         <v>700.4400000000001</v>
@@ -1692,10 +1679,10 @@
         <v>4</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
@@ -1704,10 +1691,10 @@
         <v>142</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1">
@@ -1733,7 +1720,7 @@
         <v>131</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I12" s="2">
         <v>26.52</v>
@@ -1754,10 +1741,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -1766,10 +1753,10 @@
         <v>142</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="3" customFormat="1">
@@ -1795,7 +1782,7 @@
         <v>131</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I13" s="3">
         <v>703.92</v>
@@ -1816,10 +1803,10 @@
         <v>4</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="3">
         <v>0</v>
@@ -1828,10 +1815,10 @@
         <v>142</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1">
@@ -1857,7 +1844,7 @@
         <v>131</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I14" s="2">
         <v>26.52</v>
@@ -1878,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -1890,10 +1877,10 @@
         <v>142</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="3" customFormat="1">
@@ -1919,7 +1906,7 @@
         <v>131</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I15" s="3">
         <v>707</v>
@@ -1940,10 +1927,10 @@
         <v>5</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1952,10 +1939,10 @@
         <v>142</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1">
@@ -1981,7 +1968,7 @@
         <v>131</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I16" s="2">
         <v>26.52</v>
@@ -2002,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -2014,10 +2001,10 @@
         <v>142</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="3" customFormat="1">
@@ -2043,7 +2030,7 @@
         <v>131</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I17" s="3">
         <v>710</v>
@@ -2064,10 +2051,10 @@
         <v>5</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -2076,10 +2063,10 @@
         <v>142</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1">
@@ -2105,7 +2092,7 @@
         <v>131</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I18" s="2">
         <v>26.52</v>
@@ -2126,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -2138,10 +2125,10 @@
         <v>142</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="3" customFormat="1">
@@ -2167,7 +2154,7 @@
         <v>131</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I19" s="3">
         <v>713.1</v>
@@ -2188,10 +2175,10 @@
         <v>5</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -2200,10 +2187,10 @@
         <v>142</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1">
@@ -2229,7 +2216,7 @@
         <v>131</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I20" s="2">
         <v>26.52</v>
@@ -2250,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -2262,10 +2249,10 @@
         <v>142</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="3" customFormat="1">
@@ -2291,7 +2278,7 @@
         <v>131</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I21" s="3">
         <v>716.1</v>
@@ -2312,10 +2299,10 @@
         <v>5</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -2324,10 +2311,10 @@
         <v>142</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1">
@@ -2353,7 +2340,7 @@
         <v>131</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I22" s="2">
         <v>26.52</v>
@@ -2374,10 +2361,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -2386,10 +2373,10 @@
         <v>142</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="3" customFormat="1">
@@ -2415,7 +2402,7 @@
         <v>131</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I23" s="3">
         <v>719.2</v>
@@ -2436,10 +2423,10 @@
         <v>5</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -2448,10 +2435,10 @@
         <v>142</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1">
@@ -2477,7 +2464,7 @@
         <v>131</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I24" s="2">
         <v>26.52</v>
@@ -2498,10 +2485,10 @@
         <v>1</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -2510,10 +2497,10 @@
         <v>142</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="3" customFormat="1">
@@ -2539,7 +2526,7 @@
         <v>131</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I25" s="3">
         <v>722.2</v>
@@ -2560,10 +2547,10 @@
         <v>5</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -2572,10 +2559,10 @@
         <v>142</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1">
@@ -2601,7 +2588,7 @@
         <v>131</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I26" s="2">
         <v>26.52</v>
@@ -2622,10 +2609,10 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -2634,10 +2621,10 @@
         <v>142</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="3" customFormat="1">
@@ -2663,7 +2650,7 @@
         <v>131</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I27" s="3">
         <v>725.25</v>
@@ -2684,10 +2671,10 @@
         <v>5</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -2696,10 +2683,10 @@
         <v>142</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1">
@@ -2725,7 +2712,7 @@
         <v>131</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I28" s="2">
         <v>26.52</v>
@@ -2746,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -2758,10 +2745,10 @@
         <v>142</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="3" customFormat="1">
@@ -2787,7 +2774,7 @@
         <v>131</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I29" s="3">
         <v>728.3</v>
@@ -2808,10 +2795,10 @@
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2820,10 +2807,10 @@
         <v>142</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1">
@@ -2849,7 +2836,7 @@
         <v>131</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I30" s="2">
         <v>26.52</v>
@@ -2870,10 +2857,10 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -2882,10 +2869,10 @@
         <v>142</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="3" customFormat="1">
@@ -2911,7 +2898,7 @@
         <v>131</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I31" s="3">
         <v>730.1</v>
@@ -2932,10 +2919,10 @@
         <v>5</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q31" s="3">
         <v>0</v>
@@ -2944,10 +2931,10 @@
         <v>142</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1">
@@ -2973,7 +2960,7 @@
         <v>131</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I32" s="2">
         <v>26.52</v>
@@ -2994,10 +2981,10 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -3006,10 +2993,10 @@
         <v>142</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="3" customFormat="1">
@@ -3035,7 +3022,7 @@
         <v>131</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I33" s="3">
         <v>728.45</v>
@@ -3056,10 +3043,10 @@
         <v>5</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -3068,10 +3055,10 @@
         <v>142</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1">
@@ -3097,7 +3084,7 @@
         <v>131</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I34" s="2">
         <v>26.52</v>
@@ -3118,10 +3105,10 @@
         <v>1</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
@@ -3130,10 +3117,10 @@
         <v>142</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="3" customFormat="1">
@@ -3159,7 +3146,7 @@
         <v>131</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I35" s="3">
         <v>726.6</v>
@@ -3180,10 +3167,10 @@
         <v>5</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -3192,10 +3179,10 @@
         <v>142</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1">
@@ -3221,7 +3208,7 @@
         <v>131</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I36" s="2">
         <v>26.52</v>
@@ -3242,10 +3229,10 @@
         <v>1</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q36" s="2">
         <v>0</v>
@@ -3254,10 +3241,10 @@
         <v>142</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="3" customFormat="1">
@@ -3283,7 +3270,7 @@
         <v>131</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I37" s="3">
         <v>724.8</v>
@@ -3304,10 +3291,10 @@
         <v>5</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q37" s="3">
         <v>0</v>
@@ -3316,10 +3303,10 @@
         <v>142</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1">
@@ -3345,7 +3332,7 @@
         <v>131</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I38" s="2">
         <v>26.52</v>
@@ -3366,10 +3353,10 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q38" s="2">
         <v>0</v>
@@ -3378,10 +3365,10 @@
         <v>142</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="3" customFormat="1">
@@ -3407,7 +3394,7 @@
         <v>131</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I39" s="3">
         <v>722.95</v>
@@ -3428,10 +3415,10 @@
         <v>5</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q39" s="3">
         <v>0</v>
@@ -3440,10 +3427,10 @@
         <v>142</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1">
@@ -3469,7 +3456,7 @@
         <v>131</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I40" s="2">
         <v>26.52</v>
@@ -3490,10 +3477,10 @@
         <v>1</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q40" s="2">
         <v>0</v>
@@ -3502,10 +3489,10 @@
         <v>142</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="3" customFormat="1">
@@ -3531,7 +3518,7 @@
         <v>131</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I41" s="3">
         <v>721.1</v>
@@ -3552,10 +3539,10 @@
         <v>5</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -3564,10 +3551,10 @@
         <v>142</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1">
@@ -3593,7 +3580,7 @@
         <v>131</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I42" s="2">
         <v>26.52</v>
@@ -3614,10 +3601,10 @@
         <v>1</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q42" s="2">
         <v>0</v>
@@ -3626,10 +3613,10 @@
         <v>142</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="3" customFormat="1">
@@ -3655,7 +3642,7 @@
         <v>131</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I43" s="3">
         <v>719.25</v>
@@ -3676,10 +3663,10 @@
         <v>5</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3688,10 +3675,10 @@
         <v>142</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1">
@@ -3717,7 +3704,7 @@
         <v>131</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I44" s="2">
         <v>26.52</v>
@@ -3738,10 +3725,10 @@
         <v>1</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q44" s="2">
         <v>0</v>
@@ -3750,10 +3737,10 @@
         <v>142</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="3" customFormat="1">
@@ -3779,7 +3766,7 @@
         <v>131</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I45" s="3">
         <v>715.55</v>
@@ -3800,10 +3787,10 @@
         <v>5</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3812,10 +3799,10 @@
         <v>142</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1">
@@ -3841,7 +3828,7 @@
         <v>131</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I46" s="2">
         <v>26.52</v>
@@ -3862,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q46" s="2">
         <v>0</v>
@@ -3874,10 +3861,10 @@
         <v>142</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="3" customFormat="1">
@@ -3903,7 +3890,7 @@
         <v>131</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I47" s="3">
         <v>713.7</v>
@@ -3924,10 +3911,10 @@
         <v>5</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3936,10 +3923,10 @@
         <v>142</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1">
@@ -3965,7 +3952,7 @@
         <v>131</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I48" s="2">
         <v>26.52</v>
@@ -3986,10 +3973,10 @@
         <v>1</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q48" s="2">
         <v>0</v>
@@ -3998,10 +3985,10 @@
         <v>142</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="3" customFormat="1">
@@ -4027,7 +4014,7 @@
         <v>131</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I49" s="3">
         <v>711.85</v>
@@ -4048,10 +4035,10 @@
         <v>5</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -4060,10 +4047,10 @@
         <v>142</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1">
@@ -4089,7 +4076,7 @@
         <v>131</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I50" s="2">
         <v>26.52</v>
@@ -4110,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q50" s="2">
         <v>0</v>
@@ -4122,10 +4109,10 @@
         <v>142</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="3" customFormat="1">
@@ -4151,7 +4138,7 @@
         <v>131</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I51" s="3">
         <v>710</v>
@@ -4172,10 +4159,10 @@
         <v>5</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -4184,10 +4171,10 @@
         <v>142</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1">
@@ -4213,7 +4200,7 @@
         <v>131</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I52" s="2">
         <v>26.52</v>
@@ -4234,10 +4221,10 @@
         <v>1</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q52" s="2">
         <v>0</v>
@@ -4246,10 +4233,10 @@
         <v>140</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1">
@@ -4275,7 +4262,7 @@
         <v>131</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I53" s="3">
         <v>818.3</v>
@@ -4296,10 +4283,10 @@
         <v>5</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q53" s="3">
         <v>0</v>
@@ -4308,10 +4295,10 @@
         <v>140</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1">
@@ -4337,7 +4324,7 @@
         <v>131</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I54" s="2">
         <v>26.52</v>
@@ -4358,22 +4345,22 @@
         <v>1</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="2">
         <v>0</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="3" customFormat="1">
@@ -4399,7 +4386,7 @@
         <v>131</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I55" s="3">
         <v>988.75</v>
@@ -4420,22 +4407,22 @@
         <v>7</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q55" s="3">
         <v>0</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1">
@@ -4461,7 +4448,7 @@
         <v>131</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I56" s="2">
         <v>26.52</v>
@@ -4482,10 +4469,10 @@
         <v>1</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q56" s="2">
         <v>0</v>
@@ -4494,10 +4481,10 @@
         <v>142</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="3" customFormat="1">
@@ -4523,7 +4510,7 @@
         <v>131</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I57" s="3">
         <v>700.4400000000001</v>
@@ -4544,10 +4531,10 @@
         <v>4</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4556,10 +4543,10 @@
         <v>142</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1">
@@ -4585,7 +4572,7 @@
         <v>131</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I58" s="2">
         <v>26.52</v>
@@ -4606,10 +4593,10 @@
         <v>1</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q58" s="2">
         <v>0</v>
@@ -4618,10 +4605,10 @@
         <v>142</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="3" customFormat="1">
@@ -4647,7 +4634,7 @@
         <v>131</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I59" s="3">
         <v>700.4400000000001</v>
@@ -4668,10 +4655,10 @@
         <v>4</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4680,10 +4667,10 @@
         <v>142</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1">
@@ -4709,7 +4696,7 @@
         <v>131</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I60" s="2">
         <v>26.52</v>
@@ -4730,10 +4717,10 @@
         <v>1</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q60" s="2">
         <v>0</v>
@@ -4742,10 +4729,10 @@
         <v>142</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="3" customFormat="1">
@@ -4771,7 +4758,7 @@
         <v>131</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I61" s="3">
         <v>700.4400000000001</v>
@@ -4792,10 +4779,10 @@
         <v>4</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4804,10 +4791,10 @@
         <v>142</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1">
@@ -4833,7 +4820,7 @@
         <v>131</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I62" s="2">
         <v>26.52</v>
@@ -4854,10 +4841,10 @@
         <v>1</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q62" s="2">
         <v>0</v>
@@ -4866,10 +4853,10 @@
         <v>142</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="3" customFormat="1">
@@ -4895,7 +4882,7 @@
         <v>131</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I63" s="3">
         <v>700.4400000000001</v>
@@ -4916,10 +4903,10 @@
         <v>4</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q63" s="3">
         <v>0</v>
@@ -4928,10 +4915,10 @@
         <v>142</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1">
@@ -4957,7 +4944,7 @@
         <v>131</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I64" s="2">
         <v>26.52</v>
@@ -4978,10 +4965,10 @@
         <v>1</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q64" s="2">
         <v>0</v>
@@ -4990,10 +4977,10 @@
         <v>142</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="3" customFormat="1">
@@ -5019,7 +5006,7 @@
         <v>131</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I65" s="3">
         <v>700.4400000000001</v>
@@ -5040,10 +5027,10 @@
         <v>4</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q65" s="3">
         <v>0</v>
@@ -5052,10 +5039,10 @@
         <v>142</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="2" customFormat="1">
@@ -5081,7 +5068,7 @@
         <v>131</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I66" s="2">
         <v>26.52</v>
@@ -5102,10 +5089,10 @@
         <v>1</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q66" s="2">
         <v>0</v>
@@ -5114,10 +5101,10 @@
         <v>142</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="3" customFormat="1">
@@ -5143,7 +5130,7 @@
         <v>131</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I67" s="3">
         <v>700.4400000000001</v>
@@ -5164,10 +5151,10 @@
         <v>4</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q67" s="3">
         <v>0</v>
@@ -5176,10 +5163,10 @@
         <v>142</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:20" s="2" customFormat="1">
@@ -5205,7 +5192,7 @@
         <v>131</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I68" s="2">
         <v>26.52</v>
@@ -5226,10 +5213,10 @@
         <v>1</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q68" s="2">
         <v>0</v>
@@ -5238,10 +5225,10 @@
         <v>142</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:20" s="3" customFormat="1">
@@ -5267,7 +5254,7 @@
         <v>131</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I69" s="3">
         <v>700.4400000000001</v>
@@ -5288,10 +5275,10 @@
         <v>4</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q69" s="3">
         <v>0</v>
@@ -5300,10 +5287,10 @@
         <v>142</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:20" s="2" customFormat="1">
@@ -5329,7 +5316,7 @@
         <v>131</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I70" s="2">
         <v>26.52</v>
@@ -5350,10 +5337,10 @@
         <v>1</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q70" s="2">
         <v>0</v>
@@ -5362,10 +5349,10 @@
         <v>142</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:20" s="3" customFormat="1">
@@ -5391,7 +5378,7 @@
         <v>131</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I71" s="3">
         <v>700.4400000000001</v>
@@ -5412,10 +5399,10 @@
         <v>4</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q71" s="3">
         <v>0</v>
@@ -5424,10 +5411,10 @@
         <v>142</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:20" s="2" customFormat="1">
@@ -5453,7 +5440,7 @@
         <v>131</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I72" s="2">
         <v>26.52</v>
@@ -5474,10 +5461,10 @@
         <v>1</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q72" s="2">
         <v>0</v>
@@ -5486,10 +5473,10 @@
         <v>142</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:20" s="3" customFormat="1">
@@ -5515,7 +5502,7 @@
         <v>131</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I73" s="3">
         <v>700.4400000000001</v>
@@ -5536,10 +5523,10 @@
         <v>4</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q73" s="3">
         <v>0</v>
@@ -5548,10 +5535,10 @@
         <v>142</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:20" s="2" customFormat="1">
@@ -5577,7 +5564,7 @@
         <v>131</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I74" s="2">
         <v>26.52</v>
@@ -5598,10 +5585,10 @@
         <v>1</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q74" s="2">
         <v>0</v>
@@ -5610,10 +5597,10 @@
         <v>142</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:20" s="3" customFormat="1">
@@ -5639,7 +5626,7 @@
         <v>131</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I75" s="3">
         <v>700.4400000000001</v>
@@ -5660,10 +5647,10 @@
         <v>4</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q75" s="3">
         <v>0</v>
@@ -5672,10 +5659,10 @@
         <v>142</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:20" s="2" customFormat="1">
@@ -5701,7 +5688,7 @@
         <v>131</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I76" s="2">
         <v>26.52</v>
@@ -5722,10 +5709,10 @@
         <v>1</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q76" s="2">
         <v>0</v>
@@ -5734,10 +5721,10 @@
         <v>142</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:20" s="3" customFormat="1">
@@ -5763,7 +5750,7 @@
         <v>131</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I77" s="3">
         <v>700.4400000000001</v>
@@ -5784,10 +5771,10 @@
         <v>4</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q77" s="3">
         <v>0</v>
@@ -5796,10 +5783,10 @@
         <v>142</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:20" s="2" customFormat="1">
@@ -5825,7 +5812,7 @@
         <v>131</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I78" s="2">
         <v>26.52</v>
@@ -5846,22 +5833,22 @@
         <v>1</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q78" s="2">
         <v>0</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:20" s="3" customFormat="1">
@@ -5887,7 +5874,7 @@
         <v>131</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I79" s="3">
         <v>818.65</v>
@@ -5908,22 +5895,22 @@
         <v>5</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q79" s="3">
         <v>0</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:20" s="2" customFormat="1">
@@ -5949,7 +5936,7 @@
         <v>131</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I80" s="2">
         <v>26.52</v>
@@ -5970,22 +5957,22 @@
         <v>1</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q80" s="2">
         <v>0</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:20" s="3" customFormat="1">
@@ -6011,7 +5998,7 @@
         <v>131</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I81" s="3">
         <v>702.4</v>
@@ -6032,22 +6019,22 @@
         <v>4</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:20" s="2" customFormat="1">
@@ -6073,7 +6060,7 @@
         <v>131</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I82" s="2">
         <v>26.52</v>
@@ -6094,22 +6081,22 @@
         <v>1</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q82" s="2">
         <v>0</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:20" s="3" customFormat="1">
@@ -6135,7 +6122,7 @@
         <v>131</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I83" s="3">
         <v>985.08</v>
@@ -6156,22 +6143,22 @@
         <v>6</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:20" s="2" customFormat="1">
@@ -6197,7 +6184,7 @@
         <v>131</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I84" s="2">
         <v>26.52</v>
@@ -6218,10 +6205,10 @@
         <v>1</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q84" s="2">
         <v>0</v>
@@ -6230,10 +6217,10 @@
         <v>142</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="3" customFormat="1">
@@ -6259,7 +6246,7 @@
         <v>131</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I85" s="3">
         <v>700.4400000000001</v>
@@ -6280,10 +6267,10 @@
         <v>4</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q85" s="3">
         <v>0</v>
@@ -6292,10 +6279,10 @@
         <v>142</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="2" customFormat="1">
@@ -6321,7 +6308,7 @@
         <v>131</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I86" s="2">
         <v>26.52</v>
@@ -6342,10 +6329,10 @@
         <v>1</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q86" s="2">
         <v>0</v>
@@ -6354,10 +6341,10 @@
         <v>142</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:20" s="3" customFormat="1">
@@ -6383,7 +6370,7 @@
         <v>131</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I87" s="3">
         <v>700.4400000000001</v>
@@ -6404,10 +6391,10 @@
         <v>4</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q87" s="3">
         <v>0</v>
@@ -6416,10 +6403,10 @@
         <v>142</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:20" s="2" customFormat="1">
@@ -6445,7 +6432,7 @@
         <v>131</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I88" s="2">
         <v>26.52</v>
@@ -6466,10 +6453,10 @@
         <v>1</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q88" s="2">
         <v>0</v>
@@ -6478,10 +6465,10 @@
         <v>142</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="3" customFormat="1">
@@ -6507,7 +6494,7 @@
         <v>131</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I89" s="3">
         <v>700.4400000000001</v>
@@ -6528,10 +6515,10 @@
         <v>4</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6540,10 +6527,10 @@
         <v>142</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="2" customFormat="1">
@@ -6569,7 +6556,7 @@
         <v>131</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I90" s="2">
         <v>26.52</v>
@@ -6590,10 +6577,10 @@
         <v>1</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q90" s="2">
         <v>0</v>
@@ -6602,10 +6589,10 @@
         <v>142</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:20" s="3" customFormat="1">
@@ -6631,7 +6618,7 @@
         <v>131</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I91" s="3">
         <v>700.4400000000001</v>
@@ -6652,10 +6639,10 @@
         <v>4</v>
       </c>
       <c r="O91" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6664,10 +6651,10 @@
         <v>142</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:20" s="2" customFormat="1">
@@ -6693,7 +6680,7 @@
         <v>131</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I92" s="2">
         <v>26.52</v>
@@ -6714,10 +6701,10 @@
         <v>1</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q92" s="2">
         <v>0</v>
@@ -6726,10 +6713,10 @@
         <v>142</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="3" customFormat="1">
@@ -6755,7 +6742,7 @@
         <v>131</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I93" s="3">
         <v>700.4400000000001</v>
@@ -6776,10 +6763,10 @@
         <v>4</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q93" s="3">
         <v>0</v>
@@ -6788,10 +6775,10 @@
         <v>142</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="2" customFormat="1">
@@ -6817,7 +6804,7 @@
         <v>131</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I94" s="2">
         <v>26.52</v>
@@ -6838,10 +6825,10 @@
         <v>1</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q94" s="2">
         <v>0</v>
@@ -6850,10 +6837,10 @@
         <v>142</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="3" customFormat="1">
@@ -6879,7 +6866,7 @@
         <v>131</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I95" s="3">
         <v>700.4400000000001</v>
@@ -6900,10 +6887,10 @@
         <v>4</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q95" s="3">
         <v>0</v>
@@ -6912,10 +6899,10 @@
         <v>142</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:20" s="2" customFormat="1">
@@ -6941,7 +6928,7 @@
         <v>131</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I96" s="2">
         <v>26.52</v>
@@ -6962,10 +6949,10 @@
         <v>1</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q96" s="2">
         <v>0</v>
@@ -6974,10 +6961,10 @@
         <v>142</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:20" s="3" customFormat="1">
@@ -7003,7 +6990,7 @@
         <v>131</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I97" s="3">
         <v>700.4400000000001</v>
@@ -7024,10 +7011,10 @@
         <v>4</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q97" s="3">
         <v>0</v>
@@ -7036,10 +7023,10 @@
         <v>142</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:20" s="2" customFormat="1">
@@ -7065,7 +7052,7 @@
         <v>131</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I98" s="2">
         <v>26.52</v>
@@ -7086,10 +7073,10 @@
         <v>1</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q98" s="2">
         <v>0</v>
@@ -7098,10 +7085,10 @@
         <v>142</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:20" s="3" customFormat="1">
@@ -7127,7 +7114,7 @@
         <v>131</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I99" s="3">
         <v>700.4400000000001</v>
@@ -7148,10 +7135,10 @@
         <v>4</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q99" s="3">
         <v>0</v>
@@ -7160,10 +7147,10 @@
         <v>142</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:20" s="2" customFormat="1">
@@ -7189,7 +7176,7 @@
         <v>131</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I100" s="2">
         <v>26.52</v>
@@ -7210,10 +7197,10 @@
         <v>1</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q100" s="2">
         <v>0</v>
@@ -7222,10 +7209,10 @@
         <v>142</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:20" s="3" customFormat="1">
@@ -7251,7 +7238,7 @@
         <v>131</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I101" s="3">
         <v>700.4400000000001</v>
@@ -7272,10 +7259,10 @@
         <v>4</v>
       </c>
       <c r="O101" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -7284,10 +7271,10 @@
         <v>142</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:20" s="2" customFormat="1">
@@ -7313,7 +7300,7 @@
         <v>131</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I102" s="2">
         <v>26.52</v>
@@ -7334,10 +7321,10 @@
         <v>1</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q102" s="2">
         <v>0</v>
@@ -7346,10 +7333,10 @@
         <v>142</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:20" s="3" customFormat="1">
@@ -7375,7 +7362,7 @@
         <v>131</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I103" s="3">
         <v>700.4400000000001</v>
@@ -7396,10 +7383,10 @@
         <v>4</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q103" s="3">
         <v>0</v>
@@ -7408,10 +7395,10 @@
         <v>142</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:20" s="2" customFormat="1">
@@ -7437,7 +7424,7 @@
         <v>131</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I104" s="2">
         <v>26.52</v>
@@ -7458,10 +7445,10 @@
         <v>1</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q104" s="2">
         <v>0</v>
@@ -7470,10 +7457,10 @@
         <v>142</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:20" s="3" customFormat="1">
@@ -7499,7 +7486,7 @@
         <v>131</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I105" s="3">
         <v>700.4400000000001</v>
@@ -7520,10 +7507,10 @@
         <v>4</v>
       </c>
       <c r="O105" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q105" s="3">
         <v>0</v>
@@ -7532,10 +7519,10 @@
         <v>142</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T105" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:20" s="2" customFormat="1">
@@ -7561,7 +7548,7 @@
         <v>131</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I106" s="2">
         <v>26.52</v>
@@ -7582,22 +7569,22 @@
         <v>1</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q106" s="2">
         <v>0</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:20" s="3" customFormat="1">
@@ -7623,7 +7610,7 @@
         <v>131</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I107" s="3">
         <v>983.04</v>
@@ -7644,22 +7631,22 @@
         <v>6</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q107" s="3">
         <v>0</v>
       </c>
       <c r="R107" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:20" s="2" customFormat="1">
@@ -7685,7 +7672,7 @@
         <v>131</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I108" s="2">
         <v>26.52</v>
@@ -7706,22 +7693,22 @@
         <v>1</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q108" s="2">
         <v>0</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:20" s="3" customFormat="1">
@@ -7747,7 +7734,7 @@
         <v>131</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I109" s="3">
         <v>1015.14</v>
@@ -7768,22 +7755,22 @@
         <v>7</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q109" s="3">
         <v>0</v>
       </c>
       <c r="R109" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T109" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:20" s="2" customFormat="1">
@@ -7809,7 +7796,7 @@
         <v>131</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I110" s="2">
         <v>26.52</v>
@@ -7830,10 +7817,10 @@
         <v>1</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q110" s="2">
         <v>0</v>
@@ -7842,10 +7829,10 @@
         <v>142</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:20" s="3" customFormat="1">
@@ -7871,7 +7858,7 @@
         <v>131</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I111" s="3">
         <v>700.4400000000001</v>
@@ -7892,10 +7879,10 @@
         <v>4</v>
       </c>
       <c r="O111" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q111" s="3">
         <v>0</v>
@@ -7904,10 +7891,10 @@
         <v>142</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T111" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:20" s="2" customFormat="1">
@@ -7933,7 +7920,7 @@
         <v>131</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I112" s="2">
         <v>26.52</v>
@@ -7954,10 +7941,10 @@
         <v>1</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q112" s="2">
         <v>0</v>
@@ -7966,10 +7953,10 @@
         <v>142</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:20" s="3" customFormat="1">
@@ -7995,7 +7982,7 @@
         <v>131</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I113" s="3">
         <v>700.4400000000001</v>
@@ -8016,10 +8003,10 @@
         <v>4</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q113" s="3">
         <v>0</v>
@@ -8028,10 +8015,10 @@
         <v>142</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T113" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:20" s="2" customFormat="1">
@@ -8057,7 +8044,7 @@
         <v>131</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I114" s="2">
         <v>26.52</v>
@@ -8078,10 +8065,10 @@
         <v>1</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q114" s="2">
         <v>0</v>
@@ -8090,10 +8077,10 @@
         <v>142</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:20" s="3" customFormat="1">
@@ -8119,7 +8106,7 @@
         <v>131</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I115" s="3">
         <v>700.4400000000001</v>
@@ -8140,10 +8127,10 @@
         <v>4</v>
       </c>
       <c r="O115" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q115" s="3">
         <v>0</v>
@@ -8152,10 +8139,10 @@
         <v>142</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T115" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:20" s="2" customFormat="1">
@@ -8181,7 +8168,7 @@
         <v>131</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I116" s="2">
         <v>26.52</v>
@@ -8202,10 +8189,10 @@
         <v>1</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q116" s="2">
         <v>0</v>
@@ -8214,10 +8201,10 @@
         <v>142</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:20" s="3" customFormat="1">
@@ -8243,7 +8230,7 @@
         <v>131</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I117" s="3">
         <v>700.4400000000001</v>
@@ -8264,10 +8251,10 @@
         <v>4</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q117" s="3">
         <v>0</v>
@@ -8276,10 +8263,10 @@
         <v>142</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T117" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:20" s="2" customFormat="1">
@@ -8305,7 +8292,7 @@
         <v>131</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I118" s="2">
         <v>26.52</v>
@@ -8326,10 +8313,10 @@
         <v>1</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q118" s="2">
         <v>0</v>
@@ -8338,10 +8325,10 @@
         <v>142</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:20" s="3" customFormat="1">
@@ -8367,7 +8354,7 @@
         <v>131</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I119" s="3">
         <v>700.4400000000001</v>
@@ -8388,10 +8375,10 @@
         <v>4</v>
       </c>
       <c r="O119" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q119" s="3">
         <v>0</v>
@@ -8400,10 +8387,10 @@
         <v>142</v>
       </c>
       <c r="S119" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T119" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:20" s="2" customFormat="1">
@@ -8429,7 +8416,7 @@
         <v>131</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I120" s="2">
         <v>26.52</v>
@@ -8450,10 +8437,10 @@
         <v>1</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q120" s="2">
         <v>0</v>
@@ -8462,10 +8449,10 @@
         <v>142</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:20" s="3" customFormat="1">
@@ -8491,7 +8478,7 @@
         <v>131</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I121" s="3">
         <v>700.4400000000001</v>
@@ -8512,10 +8499,10 @@
         <v>4</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q121" s="3">
         <v>0</v>
@@ -8524,10 +8511,10 @@
         <v>142</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T121" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:20" s="2" customFormat="1">
@@ -8553,7 +8540,7 @@
         <v>131</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I122" s="2">
         <v>26.52</v>
@@ -8574,10 +8561,10 @@
         <v>1</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q122" s="2">
         <v>0</v>
@@ -8586,10 +8573,10 @@
         <v>142</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:20" s="3" customFormat="1">
@@ -8615,7 +8602,7 @@
         <v>131</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I123" s="3">
         <v>700.4400000000001</v>
@@ -8636,10 +8623,10 @@
         <v>4</v>
       </c>
       <c r="O123" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q123" s="3">
         <v>0</v>
@@ -8648,10 +8635,10 @@
         <v>142</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T123" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:20" s="2" customFormat="1">
@@ -8677,7 +8664,7 @@
         <v>131</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I124" s="2">
         <v>26.52</v>
@@ -8698,10 +8685,10 @@
         <v>1</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q124" s="2">
         <v>0</v>
@@ -8710,10 +8697,10 @@
         <v>142</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:20" s="3" customFormat="1">
@@ -8739,7 +8726,7 @@
         <v>131</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I125" s="3">
         <v>700.4400000000001</v>
@@ -8760,10 +8747,10 @@
         <v>4</v>
       </c>
       <c r="O125" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q125" s="3">
         <v>0</v>
@@ -8772,10 +8759,10 @@
         <v>142</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T125" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:20" s="2" customFormat="1">
@@ -8801,7 +8788,7 @@
         <v>131</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I126" s="2">
         <v>26.52</v>
@@ -8822,10 +8809,10 @@
         <v>1</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q126" s="2">
         <v>0</v>
@@ -8834,10 +8821,10 @@
         <v>142</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:20" s="3" customFormat="1">
@@ -8863,7 +8850,7 @@
         <v>131</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I127" s="3">
         <v>700.4400000000001</v>
@@ -8884,10 +8871,10 @@
         <v>4</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q127" s="3">
         <v>0</v>
@@ -8896,10 +8883,10 @@
         <v>142</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T127" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:20" s="2" customFormat="1">
@@ -8925,7 +8912,7 @@
         <v>131</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I128" s="2">
         <v>26.52</v>
@@ -8946,10 +8933,10 @@
         <v>1</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q128" s="2">
         <v>0</v>
@@ -8958,10 +8945,10 @@
         <v>142</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:20" s="3" customFormat="1">
@@ -8987,7 +8974,7 @@
         <v>131</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I129" s="3">
         <v>700.4400000000001</v>
@@ -9008,10 +8995,10 @@
         <v>4</v>
       </c>
       <c r="O129" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q129" s="3">
         <v>0</v>
@@ -9020,10 +9007,10 @@
         <v>142</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:20" s="2" customFormat="1">
@@ -9049,7 +9036,7 @@
         <v>131</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I130" s="2">
         <v>26.52</v>
@@ -9070,10 +9057,10 @@
         <v>1</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q130" s="2">
         <v>0</v>
@@ -9082,10 +9069,10 @@
         <v>142</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T130" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:20" s="3" customFormat="1">
@@ -9111,7 +9098,7 @@
         <v>131</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I131" s="3">
         <v>700.4400000000001</v>
@@ -9132,10 +9119,10 @@
         <v>4</v>
       </c>
       <c r="O131" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P131" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q131" s="3">
         <v>0</v>
@@ -9144,10 +9131,10 @@
         <v>142</v>
       </c>
       <c r="S131" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T131" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:20" s="2" customFormat="1">
@@ -9173,7 +9160,7 @@
         <v>131</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I132" s="2">
         <v>26.52</v>
@@ -9194,10 +9181,10 @@
         <v>1</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q132" s="2">
         <v>0</v>
@@ -9206,10 +9193,10 @@
         <v>142</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T132" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:20" s="3" customFormat="1">
@@ -9235,7 +9222,7 @@
         <v>131</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I133" s="3">
         <v>700.4400000000001</v>
@@ -9256,10 +9243,10 @@
         <v>4</v>
       </c>
       <c r="O133" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q133" s="3">
         <v>0</v>
@@ -9268,10 +9255,10 @@
         <v>142</v>
       </c>
       <c r="S133" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T133" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:20" s="2" customFormat="1">
@@ -9297,7 +9284,7 @@
         <v>131</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I134" s="2">
         <v>26.52</v>
@@ -9318,22 +9305,22 @@
         <v>1</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q134" s="2">
         <v>0</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:20" s="3" customFormat="1">
@@ -9359,7 +9346,7 @@
         <v>131</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I135" s="3">
         <v>1021.44</v>
@@ -9380,22 +9367,22 @@
         <v>7</v>
       </c>
       <c r="O135" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P135" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q135" s="3">
         <v>0</v>
       </c>
       <c r="R135" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S135" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T135" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:20" s="2" customFormat="1">
@@ -9421,7 +9408,7 @@
         <v>131</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I136" s="2">
         <v>26.52</v>
@@ -9442,22 +9429,22 @@
         <v>1</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q136" s="2">
         <v>0</v>
       </c>
       <c r="R136" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:20" s="3" customFormat="1">
@@ -9483,7 +9470,7 @@
         <v>131</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I137" s="3">
         <v>998.48</v>
@@ -9504,22 +9491,22 @@
         <v>7</v>
       </c>
       <c r="O137" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P137" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q137" s="3">
         <v>0</v>
       </c>
       <c r="R137" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="S137" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T137" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:20" s="2" customFormat="1">
@@ -9545,7 +9532,7 @@
         <v>131</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I138" s="2">
         <v>26.52</v>
@@ -9566,10 +9553,10 @@
         <v>1</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q138" s="2">
         <v>0</v>
@@ -9578,10 +9565,10 @@
         <v>142</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="139" spans="1:20" s="3" customFormat="1">
@@ -9607,7 +9594,7 @@
         <v>131</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I139" s="3">
         <v>700.4400000000001</v>
@@ -9628,10 +9615,10 @@
         <v>4</v>
       </c>
       <c r="O139" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P139" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q139" s="3">
         <v>0</v>
@@ -9640,10 +9627,10 @@
         <v>142</v>
       </c>
       <c r="S139" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T139" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:20" s="2" customFormat="1">
@@ -9669,7 +9656,7 @@
         <v>131</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I140" s="2">
         <v>26.52</v>
@@ -9690,10 +9677,10 @@
         <v>1</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q140" s="2">
         <v>0</v>
@@ -9702,10 +9689,10 @@
         <v>142</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:20" s="3" customFormat="1">
@@ -9731,7 +9718,7 @@
         <v>131</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I141" s="3">
         <v>700.4400000000001</v>
@@ -9752,10 +9739,10 @@
         <v>4</v>
       </c>
       <c r="O141" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P141" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q141" s="3">
         <v>0</v>
@@ -9764,10 +9751,10 @@
         <v>142</v>
       </c>
       <c r="S141" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T141" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:20" s="2" customFormat="1">
@@ -9793,7 +9780,7 @@
         <v>131</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I142" s="2">
         <v>26.52</v>
@@ -9814,10 +9801,10 @@
         <v>1</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q142" s="2">
         <v>0</v>
@@ -9826,10 +9813,10 @@
         <v>142</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:20" s="3" customFormat="1">
@@ -9855,7 +9842,7 @@
         <v>131</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I143" s="3">
         <v>700.4400000000001</v>
@@ -9876,10 +9863,10 @@
         <v>4</v>
       </c>
       <c r="O143" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P143" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q143" s="3">
         <v>0</v>
@@ -9888,10 +9875,10 @@
         <v>142</v>
       </c>
       <c r="S143" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T143" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:20" s="2" customFormat="1">
@@ -9917,7 +9904,7 @@
         <v>131</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I144" s="2">
         <v>26.52</v>
@@ -9938,10 +9925,10 @@
         <v>1</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q144" s="2">
         <v>0</v>
@@ -9950,10 +9937,10 @@
         <v>142</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T144" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:20" s="3" customFormat="1">
@@ -9979,7 +9966,7 @@
         <v>131</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I145" s="3">
         <v>700.4400000000001</v>
@@ -10000,10 +9987,10 @@
         <v>4</v>
       </c>
       <c r="O145" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P145" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q145" s="3">
         <v>0</v>
@@ -10012,10 +9999,10 @@
         <v>142</v>
       </c>
       <c r="S145" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T145" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:20" s="2" customFormat="1">
@@ -10041,7 +10028,7 @@
         <v>131</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I146" s="2">
         <v>26.52</v>
@@ -10062,10 +10049,10 @@
         <v>1</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q146" s="2">
         <v>0</v>
@@ -10074,10 +10061,10 @@
         <v>142</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T146" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:20" s="3" customFormat="1">
@@ -10103,7 +10090,7 @@
         <v>131</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I147" s="3">
         <v>700.4400000000001</v>
@@ -10124,10 +10111,10 @@
         <v>4</v>
       </c>
       <c r="O147" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P147" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q147" s="3">
         <v>0</v>
@@ -10136,10 +10123,10 @@
         <v>142</v>
       </c>
       <c r="S147" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T147" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:20" s="2" customFormat="1">
@@ -10165,7 +10152,7 @@
         <v>131</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I148" s="2">
         <v>26.52</v>
@@ -10186,10 +10173,10 @@
         <v>1</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q148" s="2">
         <v>0</v>
@@ -10198,10 +10185,10 @@
         <v>142</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T148" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:20" s="3" customFormat="1">
@@ -10227,7 +10214,7 @@
         <v>131</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I149" s="3">
         <v>700.4400000000001</v>
@@ -10248,10 +10235,10 @@
         <v>4</v>
       </c>
       <c r="O149" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P149" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q149" s="3">
         <v>0</v>
@@ -10260,10 +10247,10 @@
         <v>142</v>
       </c>
       <c r="S149" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T149" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:20" s="2" customFormat="1">
@@ -10289,7 +10276,7 @@
         <v>131</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I150" s="2">
         <v>26.52</v>
@@ -10310,10 +10297,10 @@
         <v>1</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q150" s="2">
         <v>0</v>
@@ -10322,10 +10309,10 @@
         <v>142</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T150" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:20" s="3" customFormat="1">
@@ -10351,7 +10338,7 @@
         <v>131</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I151" s="3">
         <v>700.4400000000001</v>
@@ -10372,10 +10359,10 @@
         <v>4</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q151" s="3">
         <v>0</v>
@@ -10384,10 +10371,10 @@
         <v>142</v>
       </c>
       <c r="S151" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T151" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:20" s="2" customFormat="1">
@@ -10413,7 +10400,7 @@
         <v>131</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I152" s="2">
         <v>26.52</v>
@@ -10434,10 +10421,10 @@
         <v>1</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q152" s="2">
         <v>0</v>
@@ -10446,10 +10433,10 @@
         <v>142</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:20" s="3" customFormat="1">
@@ -10475,7 +10462,7 @@
         <v>131</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I153" s="3">
         <v>700.4400000000001</v>
@@ -10496,10 +10483,10 @@
         <v>4</v>
       </c>
       <c r="O153" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q153" s="3">
         <v>0</v>
@@ -10508,10 +10495,10 @@
         <v>142</v>
       </c>
       <c r="S153" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T153" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:20" s="2" customFormat="1">
@@ -10537,7 +10524,7 @@
         <v>131</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I154" s="2">
         <v>26.52</v>
@@ -10558,10 +10545,10 @@
         <v>1</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q154" s="2">
         <v>0</v>
@@ -10570,10 +10557,10 @@
         <v>142</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T154" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="3" customFormat="1">
@@ -10599,7 +10586,7 @@
         <v>131</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I155" s="3">
         <v>700.4400000000001</v>
@@ -10620,10 +10607,10 @@
         <v>4</v>
       </c>
       <c r="O155" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q155" s="3">
         <v>0</v>
@@ -10632,10 +10619,10 @@
         <v>142</v>
       </c>
       <c r="S155" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T155" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:20" s="2" customFormat="1">
@@ -10661,7 +10648,7 @@
         <v>131</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I156" s="2">
         <v>26.52</v>
@@ -10682,10 +10669,10 @@
         <v>1</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P156" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q156" s="2">
         <v>0</v>
@@ -10694,10 +10681,10 @@
         <v>142</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T156" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="3" customFormat="1">
@@ -10723,7 +10710,7 @@
         <v>131</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I157" s="3">
         <v>700.4400000000001</v>
@@ -10744,10 +10731,10 @@
         <v>4</v>
       </c>
       <c r="O157" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P157" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q157" s="3">
         <v>0</v>
@@ -10756,10 +10743,10 @@
         <v>142</v>
       </c>
       <c r="S157" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T157" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="2" customFormat="1">
@@ -10785,7 +10772,7 @@
         <v>131</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I158" s="2">
         <v>26.52</v>
@@ -10806,10 +10793,10 @@
         <v>1</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P158" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q158" s="2">
         <v>0</v>
@@ -10818,10 +10805,10 @@
         <v>142</v>
       </c>
       <c r="S158" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T158" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="159" spans="1:20" s="3" customFormat="1">
@@ -10847,7 +10834,7 @@
         <v>131</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I159" s="3">
         <v>700.4400000000001</v>
@@ -10868,10 +10855,10 @@
         <v>4</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P159" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q159" s="3">
         <v>0</v>
@@ -10880,10 +10867,10 @@
         <v>142</v>
       </c>
       <c r="S159" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T159" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160" spans="1:20" s="2" customFormat="1">
@@ -10909,7 +10896,7 @@
         <v>131</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I160" s="2">
         <v>26.52</v>
@@ -10930,10 +10917,10 @@
         <v>1</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P160" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q160" s="2">
         <v>0</v>
@@ -10942,10 +10929,10 @@
         <v>142</v>
       </c>
       <c r="S160" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T160" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:20" s="3" customFormat="1">
@@ -10971,7 +10958,7 @@
         <v>131</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I161" s="3">
         <v>700.4400000000001</v>
@@ -10992,10 +10979,10 @@
         <v>4</v>
       </c>
       <c r="O161" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P161" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q161" s="3">
         <v>0</v>
@@ -11004,10 +10991,10 @@
         <v>142</v>
       </c>
       <c r="S161" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T161" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:20" s="2" customFormat="1">
@@ -11033,7 +11020,7 @@
         <v>131</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I162" s="2">
         <v>26.52</v>
@@ -11054,22 +11041,22 @@
         <v>1</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P162" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q162" s="2">
         <v>0</v>
       </c>
       <c r="R162" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="S162" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T162" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="1:20" s="3" customFormat="1">
@@ -11095,7 +11082,7 @@
         <v>131</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I163" s="3">
         <v>1405.92</v>
@@ -11116,22 +11103,22 @@
         <v>8</v>
       </c>
       <c r="O163" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P163" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q163" s="3">
         <v>0</v>
       </c>
       <c r="R163" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="S163" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T163" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:20" s="2" customFormat="1">
@@ -11157,7 +11144,7 @@
         <v>131</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I164" s="2">
         <v>26.52</v>
@@ -11178,10 +11165,10 @@
         <v>1</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P164" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q164" s="2">
         <v>0</v>
@@ -11190,10 +11177,10 @@
         <v>142</v>
       </c>
       <c r="S164" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T164" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:20" s="3" customFormat="1">
@@ -11219,7 +11206,7 @@
         <v>131</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I165" s="3">
         <v>700.4400000000001</v>
@@ -11240,10 +11227,10 @@
         <v>4</v>
       </c>
       <c r="O165" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P165" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q165" s="3">
         <v>0</v>
@@ -11252,10 +11239,10 @@
         <v>142</v>
       </c>
       <c r="S165" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T165" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:20" s="2" customFormat="1">
@@ -11281,7 +11268,7 @@
         <v>131</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I166" s="2">
         <v>26.52</v>
@@ -11302,10 +11289,10 @@
         <v>1</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q166" s="2">
         <v>0</v>
@@ -11314,10 +11301,10 @@
         <v>142</v>
       </c>
       <c r="S166" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T166" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:20" s="3" customFormat="1">
@@ -11343,7 +11330,7 @@
         <v>131</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I167" s="3">
         <v>700.4400000000001</v>
@@ -11364,10 +11351,10 @@
         <v>4</v>
       </c>
       <c r="O167" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P167" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q167" s="3">
         <v>0</v>
@@ -11376,10 +11363,10 @@
         <v>142</v>
       </c>
       <c r="S167" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T167" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:20" s="2" customFormat="1">
@@ -11405,7 +11392,7 @@
         <v>131</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I168" s="2">
         <v>26.52</v>
@@ -11426,10 +11413,10 @@
         <v>1</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q168" s="2">
         <v>0</v>
@@ -11438,10 +11425,10 @@
         <v>142</v>
       </c>
       <c r="S168" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T168" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:20" s="3" customFormat="1">
@@ -11467,7 +11454,7 @@
         <v>131</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I169" s="3">
         <v>700.4400000000001</v>
@@ -11488,10 +11475,10 @@
         <v>4</v>
       </c>
       <c r="O169" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P169" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q169" s="3">
         <v>0</v>
@@ -11500,10 +11487,10 @@
         <v>142</v>
       </c>
       <c r="S169" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T169" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="170" spans="1:20" s="2" customFormat="1">
@@ -11529,7 +11516,7 @@
         <v>131</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I170" s="2">
         <v>26.52</v>
@@ -11550,10 +11537,10 @@
         <v>1</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P170" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q170" s="2">
         <v>0</v>
@@ -11562,10 +11549,10 @@
         <v>142</v>
       </c>
       <c r="S170" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T170" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:20" s="3" customFormat="1">
@@ -11591,7 +11578,7 @@
         <v>131</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I171" s="3">
         <v>700.4400000000001</v>
@@ -11612,10 +11599,10 @@
         <v>4</v>
       </c>
       <c r="O171" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P171" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q171" s="3">
         <v>0</v>
@@ -11624,10 +11611,10 @@
         <v>142</v>
       </c>
       <c r="S171" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T171" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="172" spans="1:20" s="2" customFormat="1">
@@ -11653,7 +11640,7 @@
         <v>131</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I172" s="2">
         <v>26.52</v>
@@ -11674,10 +11661,10 @@
         <v>1</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q172" s="2">
         <v>0</v>
@@ -11686,10 +11673,10 @@
         <v>142</v>
       </c>
       <c r="S172" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T172" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="173" spans="1:20" s="3" customFormat="1">
@@ -11715,7 +11702,7 @@
         <v>131</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I173" s="3">
         <v>700.4400000000001</v>
@@ -11736,10 +11723,10 @@
         <v>4</v>
       </c>
       <c r="O173" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P173" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q173" s="3">
         <v>0</v>
@@ -11748,10 +11735,10 @@
         <v>142</v>
       </c>
       <c r="S173" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T173" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="174" spans="1:20" s="2" customFormat="1">
@@ -11777,7 +11764,7 @@
         <v>131</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I174" s="2">
         <v>26.52</v>
@@ -11798,10 +11785,10 @@
         <v>1</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P174" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q174" s="2">
         <v>0</v>
@@ -11810,10 +11797,10 @@
         <v>142</v>
       </c>
       <c r="S174" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T174" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" spans="1:20" s="3" customFormat="1">
@@ -11839,7 +11826,7 @@
         <v>131</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I175" s="3">
         <v>700.4400000000001</v>
@@ -11860,10 +11847,10 @@
         <v>4</v>
       </c>
       <c r="O175" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P175" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q175" s="3">
         <v>0</v>
@@ -11872,10 +11859,10 @@
         <v>142</v>
       </c>
       <c r="S175" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T175" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:20" s="2" customFormat="1">
@@ -11901,7 +11888,7 @@
         <v>131</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I176" s="2">
         <v>26.52</v>
@@ -11922,10 +11909,10 @@
         <v>1</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q176" s="2">
         <v>0</v>
@@ -11934,10 +11921,10 @@
         <v>142</v>
       </c>
       <c r="S176" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T176" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="177" spans="1:20" s="3" customFormat="1">
@@ -11963,7 +11950,7 @@
         <v>131</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I177" s="3">
         <v>700.4400000000001</v>
@@ -11984,10 +11971,10 @@
         <v>4</v>
       </c>
       <c r="O177" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P177" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q177" s="3">
         <v>0</v>
@@ -11996,10 +11983,10 @@
         <v>142</v>
       </c>
       <c r="S177" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T177" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="178" spans="1:20" s="2" customFormat="1">
@@ -12025,7 +12012,7 @@
         <v>131</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I178" s="2">
         <v>26.52</v>
@@ -12046,10 +12033,10 @@
         <v>1</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q178" s="2">
         <v>0</v>
@@ -12058,10 +12045,10 @@
         <v>142</v>
       </c>
       <c r="S178" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T178" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:20" s="3" customFormat="1">
@@ -12087,7 +12074,7 @@
         <v>131</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I179" s="3">
         <v>700.4400000000001</v>
@@ -12108,10 +12095,10 @@
         <v>4</v>
       </c>
       <c r="O179" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P179" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q179" s="3">
         <v>0</v>
@@ -12120,10 +12107,10 @@
         <v>142</v>
       </c>
       <c r="S179" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T179" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:20" s="2" customFormat="1">
@@ -12149,7 +12136,7 @@
         <v>131</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I180" s="2">
         <v>26.52</v>
@@ -12170,10 +12157,10 @@
         <v>1</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q180" s="2">
         <v>0</v>
@@ -12182,10 +12169,10 @@
         <v>142</v>
       </c>
       <c r="S180" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T180" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" spans="1:20" s="3" customFormat="1">
@@ -12211,7 +12198,7 @@
         <v>131</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I181" s="3">
         <v>700.4400000000001</v>
@@ -12232,10 +12219,10 @@
         <v>4</v>
       </c>
       <c r="O181" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P181" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q181" s="3">
         <v>0</v>
@@ -12244,10 +12231,10 @@
         <v>142</v>
       </c>
       <c r="S181" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T181" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="182" spans="1:20" s="2" customFormat="1">
@@ -12273,7 +12260,7 @@
         <v>131</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I182" s="2">
         <v>26.52</v>
@@ -12294,10 +12281,10 @@
         <v>1</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q182" s="2">
         <v>0</v>
@@ -12306,10 +12293,10 @@
         <v>142</v>
       </c>
       <c r="S182" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T182" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="183" spans="1:20" s="3" customFormat="1">
@@ -12335,7 +12322,7 @@
         <v>131</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I183" s="3">
         <v>700.4400000000001</v>
@@ -12356,10 +12343,10 @@
         <v>4</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P183" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q183" s="3">
         <v>0</v>
@@ -12368,10 +12355,10 @@
         <v>142</v>
       </c>
       <c r="S183" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T183" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="184" spans="1:20" s="2" customFormat="1">
@@ -12397,7 +12384,7 @@
         <v>131</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I184" s="2">
         <v>26.52</v>
@@ -12418,10 +12405,10 @@
         <v>1</v>
       </c>
       <c r="O184" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P184" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q184" s="2">
         <v>0</v>
@@ -12430,10 +12417,10 @@
         <v>142</v>
       </c>
       <c r="S184" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T184" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="185" spans="1:20" s="3" customFormat="1">
@@ -12459,7 +12446,7 @@
         <v>131</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I185" s="3">
         <v>700.4400000000001</v>
@@ -12480,10 +12467,10 @@
         <v>4</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P185" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q185" s="3">
         <v>0</v>
@@ -12492,10 +12479,10 @@
         <v>142</v>
       </c>
       <c r="S185" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T185" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="186" spans="1:20" s="2" customFormat="1">
@@ -12521,7 +12508,7 @@
         <v>131</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I186" s="2">
         <v>26.52</v>
@@ -12542,22 +12529,22 @@
         <v>1</v>
       </c>
       <c r="O186" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P186" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q186" s="2">
         <v>0</v>
       </c>
       <c r="R186" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S186" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T186" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="187" spans="1:20" s="3" customFormat="1">
@@ -12583,7 +12570,7 @@
         <v>131</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I187" s="3">
         <v>1059.38</v>
@@ -12604,22 +12591,22 @@
         <v>7</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P187" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q187" s="3">
         <v>0</v>
       </c>
       <c r="R187" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S187" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T187" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:20" s="2" customFormat="1">
@@ -12645,7 +12632,7 @@
         <v>131</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I188" s="2">
         <v>26.52</v>
@@ -12666,22 +12653,22 @@
         <v>1</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P188" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q188" s="2">
         <v>0</v>
       </c>
       <c r="R188" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S188" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T188" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="189" spans="1:20" s="3" customFormat="1">
@@ -12707,7 +12694,7 @@
         <v>131</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I189" s="3">
         <v>1572.48</v>
@@ -12728,22 +12715,22 @@
         <v>8</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P189" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q189" s="3">
         <v>0</v>
       </c>
       <c r="R189" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S189" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T189" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="190" spans="1:20" s="2" customFormat="1">
@@ -12769,7 +12756,7 @@
         <v>131</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I190" s="2">
         <v>26.52</v>
@@ -12790,10 +12777,10 @@
         <v>1</v>
       </c>
       <c r="O190" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q190" s="2">
         <v>0</v>
@@ -12802,10 +12789,10 @@
         <v>142</v>
       </c>
       <c r="S190" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T190" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:20" s="3" customFormat="1">
@@ -12831,7 +12818,7 @@
         <v>131</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I191" s="3">
         <v>700.4400000000001</v>
@@ -12852,10 +12839,10 @@
         <v>4</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P191" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q191" s="3">
         <v>0</v>
@@ -12864,10 +12851,10 @@
         <v>142</v>
       </c>
       <c r="S191" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T191" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:20" s="2" customFormat="1">
@@ -12893,7 +12880,7 @@
         <v>131</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I192" s="2">
         <v>26.52</v>
@@ -12914,10 +12901,10 @@
         <v>1</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P192" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q192" s="2">
         <v>0</v>
@@ -12926,10 +12913,10 @@
         <v>142</v>
       </c>
       <c r="S192" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T192" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193" spans="1:20" s="3" customFormat="1">
@@ -12955,7 +12942,7 @@
         <v>131</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I193" s="3">
         <v>700.4400000000001</v>
@@ -12976,10 +12963,10 @@
         <v>4</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P193" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q193" s="3">
         <v>0</v>
@@ -12988,10 +12975,10 @@
         <v>142</v>
       </c>
       <c r="S193" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T193" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="194" spans="1:20" s="2" customFormat="1">
@@ -13017,7 +13004,7 @@
         <v>131</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I194" s="2">
         <v>26.52</v>
@@ -13038,10 +13025,10 @@
         <v>1</v>
       </c>
       <c r="O194" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P194" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q194" s="2">
         <v>0</v>
@@ -13050,10 +13037,10 @@
         <v>142</v>
       </c>
       <c r="S194" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T194" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="195" spans="1:20" s="3" customFormat="1">
@@ -13079,7 +13066,7 @@
         <v>131</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I195" s="3">
         <v>700.4400000000001</v>
@@ -13100,10 +13087,10 @@
         <v>4</v>
       </c>
       <c r="O195" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P195" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q195" s="3">
         <v>0</v>
@@ -13112,10 +13099,10 @@
         <v>142</v>
       </c>
       <c r="S195" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T195" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="196" spans="1:20" s="2" customFormat="1">
@@ -13141,7 +13128,7 @@
         <v>131</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I196" s="2">
         <v>26.52</v>
@@ -13162,10 +13149,10 @@
         <v>1</v>
       </c>
       <c r="O196" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P196" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q196" s="2">
         <v>0</v>
@@ -13174,10 +13161,10 @@
         <v>142</v>
       </c>
       <c r="S196" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T196" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="197" spans="1:20" s="3" customFormat="1">
@@ -13203,7 +13190,7 @@
         <v>131</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I197" s="3">
         <v>700.4400000000001</v>
@@ -13224,10 +13211,10 @@
         <v>4</v>
       </c>
       <c r="O197" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P197" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q197" s="3">
         <v>0</v>
@@ -13236,10 +13223,10 @@
         <v>142</v>
       </c>
       <c r="S197" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T197" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="198" spans="1:20" s="2" customFormat="1">
@@ -13265,7 +13252,7 @@
         <v>131</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I198" s="2">
         <v>26.52</v>
@@ -13286,10 +13273,10 @@
         <v>1</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P198" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q198" s="2">
         <v>0</v>
@@ -13298,10 +13285,10 @@
         <v>142</v>
       </c>
       <c r="S198" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T198" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="199" spans="1:20" s="3" customFormat="1">
@@ -13327,7 +13314,7 @@
         <v>131</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I199" s="3">
         <v>700.4400000000001</v>
@@ -13348,10 +13335,10 @@
         <v>4</v>
       </c>
       <c r="O199" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P199" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q199" s="3">
         <v>0</v>
@@ -13360,10 +13347,10 @@
         <v>142</v>
       </c>
       <c r="S199" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T199" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:20" s="2" customFormat="1">
@@ -13389,7 +13376,7 @@
         <v>131</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I200" s="2">
         <v>26.52</v>
@@ -13410,10 +13397,10 @@
         <v>1</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P200" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q200" s="2">
         <v>0</v>
@@ -13422,10 +13409,10 @@
         <v>142</v>
       </c>
       <c r="S200" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T200" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="201" spans="1:20" s="3" customFormat="1">
@@ -13451,7 +13438,7 @@
         <v>131</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I201" s="3">
         <v>700.4400000000001</v>
@@ -13472,10 +13459,10 @@
         <v>4</v>
       </c>
       <c r="O201" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P201" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q201" s="3">
         <v>0</v>
@@ -13484,10 +13471,10 @@
         <v>142</v>
       </c>
       <c r="S201" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T201" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="202" spans="1:20" s="2" customFormat="1">
@@ -13513,7 +13500,7 @@
         <v>131</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I202" s="2">
         <v>26.52</v>
@@ -13534,10 +13521,10 @@
         <v>1</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P202" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q202" s="2">
         <v>0</v>
@@ -13546,10 +13533,10 @@
         <v>142</v>
       </c>
       <c r="S202" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T202" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="203" spans="1:20" s="3" customFormat="1">
@@ -13575,7 +13562,7 @@
         <v>131</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I203" s="3">
         <v>700.4400000000001</v>
@@ -13596,10 +13583,10 @@
         <v>4</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P203" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q203" s="3">
         <v>0</v>
@@ -13608,10 +13595,10 @@
         <v>142</v>
       </c>
       <c r="S203" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T203" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:20" s="2" customFormat="1">
@@ -13637,7 +13624,7 @@
         <v>131</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I204" s="2">
         <v>26.52</v>
@@ -13658,10 +13645,10 @@
         <v>1</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P204" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q204" s="2">
         <v>0</v>
@@ -13670,10 +13657,10 @@
         <v>142</v>
       </c>
       <c r="S204" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T204" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="1:20" s="3" customFormat="1">
@@ -13699,7 +13686,7 @@
         <v>131</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I205" s="3">
         <v>700.4400000000001</v>
@@ -13720,10 +13707,10 @@
         <v>4</v>
       </c>
       <c r="O205" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P205" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q205" s="3">
         <v>0</v>
@@ -13732,10 +13719,10 @@
         <v>142</v>
       </c>
       <c r="S205" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T205" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="206" spans="1:20" s="2" customFormat="1">
@@ -13761,7 +13748,7 @@
         <v>131</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I206" s="2">
         <v>26.52</v>
@@ -13782,10 +13769,10 @@
         <v>1</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P206" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q206" s="2">
         <v>0</v>
@@ -13794,10 +13781,10 @@
         <v>142</v>
       </c>
       <c r="S206" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T206" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="207" spans="1:20" s="3" customFormat="1">
@@ -13823,7 +13810,7 @@
         <v>131</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I207" s="3">
         <v>700.4400000000001</v>
@@ -13844,10 +13831,10 @@
         <v>4</v>
       </c>
       <c r="O207" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P207" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q207" s="3">
         <v>0</v>
@@ -13856,10 +13843,10 @@
         <v>142</v>
       </c>
       <c r="S207" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T207" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="208" spans="1:20" s="2" customFormat="1">
@@ -13885,7 +13872,7 @@
         <v>131</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I208" s="2">
         <v>26.52</v>
@@ -13906,10 +13893,10 @@
         <v>1</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P208" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q208" s="2">
         <v>0</v>
@@ -13918,10 +13905,10 @@
         <v>142</v>
       </c>
       <c r="S208" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T208" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="209" spans="1:20" s="3" customFormat="1">
@@ -13947,7 +13934,7 @@
         <v>131</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I209" s="3">
         <v>700.4400000000001</v>
@@ -13968,10 +13955,10 @@
         <v>4</v>
       </c>
       <c r="O209" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P209" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q209" s="3">
         <v>0</v>
@@ -13980,10 +13967,10 @@
         <v>142</v>
       </c>
       <c r="S209" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T209" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="210" spans="1:20" s="2" customFormat="1">
@@ -14009,7 +13996,7 @@
         <v>131</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I210" s="2">
         <v>26.52</v>
@@ -14030,10 +14017,10 @@
         <v>1</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P210" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q210" s="2">
         <v>0</v>
@@ -14042,10 +14029,10 @@
         <v>142</v>
       </c>
       <c r="S210" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T210" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:20" s="3" customFormat="1">
@@ -14071,7 +14058,7 @@
         <v>131</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I211" s="3">
         <v>700.4400000000001</v>
@@ -14092,10 +14079,10 @@
         <v>4</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P211" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q211" s="3">
         <v>0</v>
@@ -14104,10 +14091,10 @@
         <v>142</v>
       </c>
       <c r="S211" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T211" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:20" s="2" customFormat="1">
@@ -14133,7 +14120,7 @@
         <v>131</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I212" s="2">
         <v>26.52</v>
@@ -14154,22 +14141,22 @@
         <v>1</v>
       </c>
       <c r="O212" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P212" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q212" s="2">
         <v>0</v>
       </c>
       <c r="R212" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="S212" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T212" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:20" s="3" customFormat="1">
@@ -14195,7 +14182,7 @@
         <v>131</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I213" s="3">
         <v>1029.49</v>
@@ -14216,22 +14203,22 @@
         <v>7</v>
       </c>
       <c r="O213" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P213" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q213" s="3">
         <v>0</v>
       </c>
       <c r="R213" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="S213" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T213" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214" spans="1:20" s="2" customFormat="1">
@@ -14257,7 +14244,7 @@
         <v>131</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I214" s="2">
         <v>26.52</v>
@@ -14278,22 +14265,22 @@
         <v>1</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P214" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q214" s="2">
         <v>0</v>
       </c>
       <c r="R214" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="S214" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T214" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="1:20" s="3" customFormat="1">
@@ -14319,7 +14306,7 @@
         <v>131</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I215" s="3">
         <v>704.4400000000001</v>
@@ -14340,22 +14327,22 @@
         <v>4</v>
       </c>
       <c r="O215" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P215" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q215" s="3">
         <v>0</v>
       </c>
       <c r="R215" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="S215" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T215" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216" spans="1:20" s="2" customFormat="1">
@@ -14381,7 +14368,7 @@
         <v>131</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I216" s="2">
         <v>26.52</v>
@@ -14402,22 +14389,22 @@
         <v>1</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P216" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q216" s="2">
         <v>0</v>
       </c>
       <c r="R216" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="S216" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T216" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="1:20" s="3" customFormat="1">
@@ -14443,7 +14430,7 @@
         <v>131</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I217" s="3">
         <v>990.01</v>
@@ -14464,34 +14451,28 @@
         <v>7</v>
       </c>
       <c r="O217" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P217" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q217" s="3">
         <v>0</v>
       </c>
       <c r="R217" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="S217" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T217" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:20" s="2" customFormat="1">
       <c r="A218" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D218" s="2" t="s">
         <v>160</v>
       </c>
@@ -14505,7 +14486,7 @@
         <v>131</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I218" s="2">
         <v>26.52</v>
@@ -14526,34 +14507,28 @@
         <v>1</v>
       </c>
       <c r="O218" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P218" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q218" s="2">
         <v>0</v>
       </c>
       <c r="R218" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="S218" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T218" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:20" s="3" customFormat="1">
       <c r="A219" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D219" s="3" t="s">
         <v>160</v>
       </c>
@@ -14567,7 +14542,7 @@
         <v>131</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I219" s="3">
         <v>20735.52</v>
@@ -14588,34 +14563,28 @@
         <v>8</v>
       </c>
       <c r="O219" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P219" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q219" s="3">
         <v>0</v>
       </c>
       <c r="R219" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="S219" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T219" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="1:20" s="2" customFormat="1">
       <c r="A220" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D220" s="2" t="s">
         <v>160</v>
       </c>
@@ -14629,7 +14598,7 @@
         <v>131</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I220" s="2">
         <v>26.52</v>
@@ -14650,34 +14619,28 @@
         <v>1</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P220" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q220" s="2">
         <v>0</v>
       </c>
       <c r="R220" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="S220" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T220" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221" spans="1:20" s="3" customFormat="1">
       <c r="A221" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D221" s="3" t="s">
         <v>160</v>
       </c>
@@ -14691,7 +14654,7 @@
         <v>131</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I221" s="3">
         <v>20560</v>
@@ -14712,34 +14675,28 @@
         <v>8</v>
       </c>
       <c r="O221" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P221" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q221" s="3">
         <v>0</v>
       </c>
       <c r="R221" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="S221" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T221" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="222" spans="1:20" s="2" customFormat="1">
       <c r="A222" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D222" s="2" t="s">
         <v>161</v>
       </c>
@@ -14753,7 +14710,7 @@
         <v>132</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I222" s="2">
         <v>59.16</v>
@@ -14778,12 +14735,6 @@
       <c r="A223" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D223" s="3" t="s">
         <v>161</v>
       </c>
@@ -14797,7 +14748,7 @@
         <v>132</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I223" s="3">
         <v>32.51</v>
@@ -14822,12 +14773,6 @@
       <c r="A224" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D224" s="2" t="s">
         <v>161</v>
       </c>
@@ -14841,7 +14786,7 @@
         <v>132</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I224" s="2">
         <v>34.8</v>
@@ -14866,12 +14811,6 @@
       <c r="A225" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D225" s="3" t="s">
         <v>161</v>
       </c>
@@ -14885,7 +14824,7 @@
         <v>132</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I225" s="3">
         <v>786.4</v>
@@ -14910,12 +14849,6 @@
       <c r="A226" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D226" s="2" t="s">
         <v>161</v>
       </c>
@@ -14929,7 +14862,7 @@
         <v>132</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I226" s="2">
         <v>214.85</v>
@@ -14954,12 +14887,6 @@
       <c r="A227" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D227" s="3" t="s">
         <v>161</v>
       </c>
@@ -14973,7 +14900,7 @@
         <v>132</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I227" s="3">
         <v>33.64</v>
@@ -14998,12 +14925,6 @@
       <c r="A228" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D228" s="2" t="s">
         <v>161</v>
       </c>
@@ -15017,7 +14938,7 @@
         <v>132</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I228" s="2">
         <v>27.14</v>
@@ -15042,12 +14963,6 @@
       <c r="A229" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D229" s="3" t="s">
         <v>161</v>
       </c>
@@ -15061,7 +14976,7 @@
         <v>132</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I229" s="3">
         <v>103.93</v>
@@ -15086,12 +15001,6 @@
       <c r="A230" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D230" s="2" t="s">
         <v>161</v>
       </c>
@@ -15105,7 +15014,7 @@
         <v>132</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I230" s="2">
         <v>51</v>
@@ -15130,12 +15039,6 @@
       <c r="A231" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B231" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D231" s="3" t="s">
         <v>161</v>
       </c>
@@ -15149,7 +15052,7 @@
         <v>132</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I231" s="3">
         <v>27.23</v>
@@ -15174,12 +15077,6 @@
       <c r="A232" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D232" s="2" t="s">
         <v>161</v>
       </c>
@@ -15193,7 +15090,7 @@
         <v>132</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I232" s="2">
         <v>3</v>
@@ -15218,12 +15115,6 @@
       <c r="A233" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D233" s="3" t="s">
         <v>161</v>
       </c>
@@ -15237,7 +15128,7 @@
         <v>132</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I233" s="3">
         <v>0.75</v>
@@ -15262,12 +15153,6 @@
       <c r="A234" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D234" s="2" t="s">
         <v>161</v>
       </c>
@@ -15281,7 +15166,7 @@
         <v>131</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I234" s="2">
         <v>62.4</v>
@@ -15306,12 +15191,6 @@
       <c r="A235" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D235" s="3" t="s">
         <v>161</v>
       </c>
@@ -15325,7 +15204,7 @@
         <v>134</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I235" s="3">
         <v>211.12</v>
@@ -15344,6 +15223,29 @@
       </c>
       <c r="N235" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236" t="s">
+        <v>130</v>
+      </c>
+      <c r="G236" t="s">
+        <v>171</v>
+      </c>
+      <c r="H236">
+        <v>1377.27</v>
+      </c>
+      <c r="I236" t="s">
+        <v>174</v>
+      </c>
+      <c r="J236">
+        <v>2720.75</v>
+      </c>
+      <c r="K236" t="s">
+        <v>175</v>
+      </c>
+      <c r="L236">
+        <v>156620.01</v>
       </c>
     </row>
   </sheetData>
